--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +428,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -443,7 +443,7 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="4" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="5" customWidth="1" min="18" max="18"/>
     <col width="5" customWidth="1" min="19" max="19"/>
@@ -562,6 +562,1482 @@
         <is>
           <t>fta</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Boozers Losers</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jacob Crews</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The Backslashers</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Jayden Epps</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hilton Heads</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mark Mitchell</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hilton Heads</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Quincy Ballard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Three Dawg Nite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jayden Stone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Three Dawg Nite</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Anthony Robinson II</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>G-Flop</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Josh Hubbard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Shawn Jones Jr.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Shawn Phillips Jr.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T.O. Barrett</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>King Grace</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sergej Macura</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Dellquan Warren</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Jamarion Davis-Fleming</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +2051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +2059,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
   </cols>
@@ -605,6 +2081,84 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Three Dawg Nite</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hilton Heads</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Boozers Losers</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>The Backslashers</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>G-Flop</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -577,40 +577,40 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -619,25 +619,25 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -654,7 +654,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -679,20 +679,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>18:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -736,45 +736,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -843,20 +843,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>18:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +900,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -925,53 +925,53 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>18:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -982,32 +982,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1029,31 +1029,31 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1074,68 +1074,68 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1171,41 +1171,41 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>18:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1228,17 +1228,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1253,53 +1253,53 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>18:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1310,66 +1310,66 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
         <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>6</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1417,17 +1417,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>18:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1436,34 +1436,34 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q12" t="n">
         <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1474,66 +1474,66 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1556,42 +1556,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1638,17 +1638,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1663,53 +1663,53 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>18:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
         <v>8</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1720,72 +1720,72 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1812,38 +1812,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>1</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1909,38 +1909,38 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2:07 - 1st Half</t>
+          <t>18:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>2</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1976,68 +1976,1052 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Shawn Phillips Jr.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>18:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>22</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>6</v>
+      </c>
+      <c r="V19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>18:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>11</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>18:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>15:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Andrija Jelavic</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>15:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>T.O. Barrett</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>18:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>King Grace</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>18:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sergej Macura</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>18:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Dellquan Warren</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>18:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Jamarion Davis-Fleming</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>18:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>18:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>15:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Ja'Borri McGhee</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>MSST</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>MIZ@MSST</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2:07 - 1st Half</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>18:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>-1</v>
       </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +3035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2088,10 +3072,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2101,62 +3085,75 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Backslashers</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -761,20 +761,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
         <v>4</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -868,10 +868,10 @@
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
@@ -910,35 +910,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
@@ -962,16 +962,16 @@
         <v>6</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -992,68 +992,68 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>5</v>
       </c>
-      <c r="I7" t="n">
+      <c r="V7" t="n">
         <v>6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1111,25 +1111,25 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1171,41 +1171,41 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
         <v>8</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
         <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1335,23 +1335,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1417,53 +1417,53 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
         <v>6</v>
       </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
         <v>4</v>
       </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2</v>
-      </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1499,20 +1499,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" t="n">
         <v>5</v>
       </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1581,11 +1581,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1663,20 +1663,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>3</v>
@@ -1691,19 +1691,19 @@
         <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
@@ -1720,22 +1720,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1745,23 +1745,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1827,20 +1827,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1849,25 +1849,25 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1894,53 +1894,53 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
         <v>2</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1976,12 +1976,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1991,53 +1991,53 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
         <v>16</v>
       </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>13</v>
-      </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2073,14 +2073,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -2089,37 +2089,37 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2155,35 +2155,35 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="n">
         <v>4</v>
@@ -2192,10 +2192,10 @@
         <v>6</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,59 +2222,59 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q22" t="n">
         <v>4</v>
       </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
@@ -2401,20 +2401,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
         <v>2</v>
@@ -2429,13 +2429,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2483,17 +2483,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2550,32 +2550,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2593,16 +2593,16 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
         <v>3</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2647,20 +2647,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -2669,25 +2669,25 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2714,35 +2714,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>7</v>
@@ -2766,10 +2766,10 @@
         <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2796,32 +2796,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18:05 - 2nd Half</t>
+          <t>5:23 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2830,19 +2830,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>2</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2878,32 +2878,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>10:03 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2960,68 +2960,478 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5:23 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Dellquan Warren</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10:03 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>10:03 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5:23 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Ja'Borri McGhee</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>MSST</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>MIZ@MSST</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>18:05 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10:03 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>-1</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I35" t="n">
         <v>4</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
         <v>5</v>
       </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1</v>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5:23 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3072,7 +3482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -3085,7 +3495,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -3098,7 +3508,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3107,11 +3517,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3120,11 +3530,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -679,17 +679,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -761,11 +761,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
         <v>8</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
         <v>2</v>
@@ -843,14 +843,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -910,68 +910,68 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" t="n">
         <v>10</v>
       </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
         <v>6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>6</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -992,35 +992,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1029,31 +1029,31 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1171,14 +1171,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
@@ -1190,22 +1190,22 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1253,20 +1253,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -1281,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
@@ -1360,22 +1360,22 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1417,17 +1417,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1445,19 +1445,19 @@
         <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -1499,20 +1499,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
         <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="n">
         <v>2</v>
@@ -1581,20 +1581,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1603,31 +1603,31 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1663,20 +1663,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>3</v>
@@ -1691,19 +1691,19 @@
         <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
@@ -1745,14 +1745,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="n">
         <v>3</v>
@@ -1909,41 +1909,41 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" t="n">
         <v>6</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
         <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2019,19 +2019,19 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2098,10 +2098,10 @@
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q20" t="n">
         <v>5</v>
@@ -2155,11 +2155,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n">
         <v>10</v>
@@ -2180,22 +2180,22 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q21" t="n">
         <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S21" t="n">
         <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,12 +2222,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2237,53 +2237,53 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
         <v>4</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>6</v>
-      </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2304,68 +2304,68 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
         <v>6</v>
       </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2386,68 +2386,68 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
         <v>4</v>
       </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>6</v>
-      </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2468,30 +2468,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H25" t="n">
+        <v>7</v>
+      </c>
+      <c r="I25" t="n">
         <v>6</v>
       </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
       <c r="J25" t="n">
         <v>2</v>
       </c>
@@ -2502,34 +2502,34 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>11</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2550,50 +2550,50 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" t="n">
         <v>4</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>5</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
@@ -2602,10 +2602,10 @@
         <v>3</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2632,12 +2632,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2647,53 +2647,53 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="n">
         <v>4</v>
       </c>
-      <c r="I27" t="n">
+      <c r="R27" t="n">
+        <v>9</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
         <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3</v>
-      </c>
-      <c r="P27" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2796,12 +2796,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2811,11 +2811,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>7</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2960,12 +2960,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2975,23 +2975,23 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10:03 - 2nd Half</t>
+          <t>3:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5:23 - 1st Half</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -607,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -622,22 +622,22 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -761,17 +761,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>17</v>
+      </c>
+      <c r="I4" t="n">
         <v>13</v>
       </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -789,25 +789,25 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8</v>
+      </c>
+      <c r="S4" t="n">
         <v>3</v>
       </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -910,32 +910,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -944,34 +944,34 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Q6" t="n">
         <v>6</v>
       </c>
       <c r="R6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -992,68 +992,68 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>11</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>5</v>
       </c>
-      <c r="R7" t="n">
-        <v>8</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>7</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1089,14 +1089,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1114,22 +1114,22 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1171,17 +1171,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
         <v>12</v>
       </c>
-      <c r="I9" t="n">
-        <v>10</v>
-      </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1253,17 +1253,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1296,10 +1296,10 @@
         <v>4</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1335,14 +1335,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1357,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1417,11 +1417,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
         <v>13</v>
@@ -1439,25 +1439,25 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="n">
         <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S12" t="n">
         <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -1499,53 +1499,53 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>3</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1581,20 +1581,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U14" t="n">
         <v>3</v>
@@ -1663,17 +1663,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
         <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q15" t="n">
         <v>6</v>
@@ -1745,14 +1745,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1827,11 +1827,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
         <v>6</v>
@@ -1840,22 +1840,22 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
         <v>3</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1934,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q18" t="n">
         <v>3</v>
@@ -1991,41 +1991,41 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q19" t="n">
         <v>3</v>
       </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2183,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q21" t="n">
         <v>4</v>
@@ -2237,23 +2237,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I22" t="n">
         <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
@@ -2262,22 +2262,22 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q22" t="n">
         <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
         <v>2</v>
@@ -2304,38 +2304,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2344,28 +2344,28 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q23" t="n">
         <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2386,62 +2386,62 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
         <v>7</v>
       </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2483,35 +2483,35 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I25" t="n">
         <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
@@ -2565,20 +2565,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
         <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2714,56 +2714,56 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
         <v>4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -2811,17 +2811,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2878,35 +2878,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -3042,22 +3042,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3067,37 +3067,37 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3206,22 +3206,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -3234,34 +3234,34 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3288,35 +3288,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3:37 - 2nd Half</t>
+          <t>13:19 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3325,31 +3325,31 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3370,35 +3370,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>-1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3407,31 +3407,31 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3478,27 +3478,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -746,68 +746,68 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>10:15 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -823,40 +823,40 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:15 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -865,31 +865,31 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -900,17 +900,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -925,20 +925,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
         <v>9</v>
       </c>
       <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="n">
         <v>6</v>
       </c>
-      <c r="T6" t="n">
-        <v>8</v>
-      </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -982,22 +982,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1011,49 +1011,49 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1089,23 +1089,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1114,28 +1114,28 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
         <v>9</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1175,25 +1175,25 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
         <v>3</v>
@@ -1202,22 +1202,22 @@
         <v>29</v>
       </c>
       <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>5</v>
       </c>
-      <c r="R9" t="n">
-        <v>8</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1238,68 +1238,68 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>11</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
         <v>8</v>
       </c>
-      <c r="J10" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4</v>
-      </c>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1310,78 +1310,78 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
         <v>8</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>10</v>
-      </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1397,12 +1397,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1421,49 +1421,49 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
         <v>4</v>
       </c>
-      <c r="R12" t="n">
-        <v>10</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>6</v>
-      </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1499,23 +1499,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1524,28 +1524,28 @@
         <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1556,45 +1556,45 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1603,28 +1603,28 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>3</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1648,38 +1648,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1720,22 +1720,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1745,53 +1745,53 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1812,62 +1812,62 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>10:15 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1884,78 +1884,78 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q18" t="n">
         <v>6</v>
       </c>
-      <c r="J18" t="n">
-        <v>5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1966,72 +1966,72 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:15 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
         <v>7</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>22</v>
-      </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2058,56 +2058,56 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="V20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,62 +2140,62 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:15 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>10</v>
       </c>
-      <c r="J21" t="n">
-        <v>4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>33</v>
-      </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2222,68 +2222,68 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:15 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2294,17 +2294,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2319,53 +2319,53 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2376,48 +2376,48 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:15 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2429,19 +2429,19 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2483,53 +2483,53 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I25" t="n">
+        <v>14</v>
+      </c>
+      <c r="J25" t="n">
         <v>6</v>
       </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2569,49 +2569,49 @@
         </is>
       </c>
       <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
         <v>7</v>
       </c>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2651,49 +2651,49 @@
         </is>
       </c>
       <c r="H27" t="n">
+        <v>21</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
         <v>6</v>
       </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>9</v>
-      </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2733,43 +2733,43 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P28" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
+        <v>7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="n">
         <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2796,68 +2796,68 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
+        <v>14</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
         <v>4</v>
       </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2893,53 +2893,53 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
+        <v>11</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
         <v>4</v>
       </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2960,62 +2960,62 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3042,35 +3042,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>10:15 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3124,68 +3124,68 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>5:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3225,13 +3225,13 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -3243,31 +3243,31 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3288,68 +3288,68 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13:19 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -3370,68 +3370,1544 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>10:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sergej Macura</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>10:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>5:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Nordin Kapic</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>10:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Eli Ellis</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>10:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>10:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>5:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>5:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Christ Essandoko</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>10:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Dellquan Warren</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>5:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>10:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Elijah Strong</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>10:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>Ja'Borri McGhee</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>MSST</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>MIZ@MSST</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H53" t="n">
         <v>-1</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I53" t="n">
         <v>4</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
         <v>16</v>
       </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
         <v>5</v>
       </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1</v>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Tyler Harris</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>5:40 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3478,27 +4954,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3508,10 +4984,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3521,10 +4997,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3534,20 +5010,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -3556,14 +5032,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,11 +597,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -622,10 +622,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -761,14 +761,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -804,10 +804,10 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -843,11 +843,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -868,22 +868,22 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
@@ -925,11 +925,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="n">
         <v>15</v>
@@ -953,19 +953,19 @@
         <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q6" t="n">
         <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
@@ -1089,14 +1089,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
         <v>6</v>
@@ -1253,17 +1253,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1281,19 +1281,19 @@
         <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1499,17 +1499,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -1521,31 +1521,31 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1663,41 +1663,41 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
         <v>5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="n">
         <v>4</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q16" t="n">
         <v>3</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1837,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1991,21 +1991,21 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
+        <v>8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
         <v>5</v>
       </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3</v>
-      </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
@@ -2019,25 +2019,25 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2058,35 +2058,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
         <v>3</v>
@@ -2113,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2140,68 +2140,68 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
+        <v>9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
         <v>4</v>
       </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2237,17 +2237,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -2262,22 +2262,22 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2319,23 +2319,23 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2347,25 +2347,25 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
         <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2429,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2483,17 +2483,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2511,13 +2511,13 @@
         <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2918,10 +2918,10 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="n">
         <v>4</v>
@@ -3057,14 +3057,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>9</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -3085,19 +3085,19 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
+        <v>7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="n">
         <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -3243,31 +3243,31 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Q34" t="n">
         <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3288,12 +3288,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3307,49 +3307,49 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P35" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3385,35 +3385,35 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -3422,10 +3422,10 @@
         <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3452,12 +3452,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3471,49 +3471,49 @@
         </is>
       </c>
       <c r="H37" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
         <v>5</v>
       </c>
-      <c r="I37" t="n">
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>5</v>
       </c>
-      <c r="J37" t="n">
-        <v>2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
+        <v>9</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
         <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3534,38 +3534,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3574,22 +3574,22 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3616,68 +3616,68 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
         <v>4</v>
       </c>
-      <c r="I39" t="n">
-        <v>4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1</v>
-      </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3713,23 +3713,23 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3738,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3750,10 +3750,10 @@
         <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3780,12 +3780,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3795,20 +3795,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -3838,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3862,22 +3862,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -3902,22 +3902,22 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3959,17 +3959,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3981,19 +3981,19 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -4026,32 +4026,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4063,31 +4063,31 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
         <v>5</v>
       </c>
-      <c r="Q44" t="n">
-        <v>1</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1</v>
-      </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -4108,38 +4108,38 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -4148,22 +4148,22 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4190,32 +4190,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4227,25 +4227,25 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4272,26 +4272,26 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4369,17 +4369,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -4394,22 +4394,22 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4436,17 +4436,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4455,43 +4455,43 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -4518,12 +4518,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4533,17 +4533,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -4555,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -4600,32 +4600,32 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -4634,28 +4634,28 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -4682,26 +4682,26 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4710,22 +4710,22 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -4764,35 +4764,35 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -4801,31 +4801,31 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
         <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4846,22 +4846,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Christ Essandoko</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>5:40 - 2nd Half</t>
+          <t>3:35 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -4889,13 +4889,13 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4907,6 +4907,252 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>3:35 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Tyler Harris</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,7 +5204,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -4971,7 +5217,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -4984,7 +5230,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -4993,11 +5239,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -5006,11 +5252,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -5023,7 +5269,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -5036,7 +5282,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -659,37 +659,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -761,47 +761,47 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
@@ -818,78 +818,78 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>15</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +900,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -910,17 +910,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -929,49 +929,49 @@
         </is>
       </c>
       <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>18</v>
       </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
         <v>4</v>
       </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>10</v>
-      </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -982,7 +982,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -992,35 +992,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1029,31 +1029,31 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1074,29 +1074,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1114,28 +1114,28 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
         <v>6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>8</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1146,27 +1146,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1175,49 +1175,49 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1228,27 +1228,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1257,43 +1257,43 @@
         </is>
       </c>
       <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>5</v>
       </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
         <v>5</v>
       </c>
-      <c r="R10" t="n">
-        <v>15</v>
-      </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1315,22 +1315,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1339,49 +1339,49 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" t="n">
         <v>6</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>8</v>
       </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1421,49 +1421,49 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1503,49 +1503,49 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1585,49 +1585,49 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1667,49 +1667,49 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1749,49 +1749,49 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R16" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
         <v>5</v>
       </c>
-      <c r="U16" t="n">
-        <v>3</v>
-      </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1802,43 +1802,43 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
+        <v>9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" t="n">
         <v>4</v>
       </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
       <c r="K17" t="n">
         <v>1</v>
       </c>
@@ -1849,31 +1849,31 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1894,17 +1894,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1913,19 +1913,19 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1934,28 +1934,28 @@
         <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1976,68 +1976,68 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
+        <v>7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>9</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="n">
         <v>5</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2048,22 +2048,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2073,53 +2073,53 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,56 +2140,56 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2198,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2217,73 +2217,73 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2304,65 +2304,65 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>2</v>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2386,32 +2386,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2420,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>2</v>
@@ -2441,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2468,68 +2468,68 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2550,17 +2550,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2569,49 +2569,49 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>6</v>
       </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2632,68 +2632,68 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
         <v>5</v>
       </c>
-      <c r="R27" t="n">
-        <v>6</v>
-      </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2714,62 +2714,62 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2786,27 +2786,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2815,49 +2815,49 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I29" t="n">
+        <v>19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q29" t="n">
         <v>9</v>
       </c>
-      <c r="J29" t="n">
-        <v>4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2868,72 +2868,72 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
@@ -2950,48 +2950,48 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3003,25 +3003,25 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3042,68 +3042,68 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3124,17 +3124,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3143,49 +3143,49 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
         <v>6</v>
       </c>
-      <c r="J33" t="n">
-        <v>3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
       <c r="S33" t="n">
         <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3206,62 +3206,62 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>15:47 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3288,12 +3288,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3307,25 +3307,25 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
         <v>3</v>
@@ -3334,10 +3334,10 @@
         <v>21</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3346,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -3370,62 +3370,62 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P36" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
         <v>7</v>
       </c>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1</v>
-      </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3452,12 +3452,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3471,49 +3471,49 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
         <v>5</v>
       </c>
-      <c r="L37" t="n">
-        <v>2</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2</v>
-      </c>
-      <c r="P37" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>9</v>
-      </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
         <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3534,68 +3534,68 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
+        <v>11</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
         <v>5</v>
       </c>
-      <c r="I38" t="n">
-        <v>5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
       <c r="P38" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3635,40 +3635,40 @@
         </is>
       </c>
       <c r="H39" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
         <v>5</v>
       </c>
-      <c r="I39" t="n">
-        <v>5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2</v>
-      </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>2</v>
@@ -3698,62 +3698,62 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H40" t="n">
+        <v>9</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q40" t="n">
         <v>4</v>
       </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>2</v>
-      </c>
-      <c r="P40" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3780,68 +3780,68 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3862,29 +3862,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -3893,28 +3893,28 @@
         <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
         <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
         <v>2</v>
@@ -3944,68 +3944,68 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -4026,68 +4026,68 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4108,68 +4108,68 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O45" t="n">
         <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4205,20 +4205,20 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4230,16 +4230,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -4272,29 +4272,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
         <v>2</v>
@@ -4312,22 +4312,22 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -4354,38 +4354,38 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -4394,22 +4394,22 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4436,32 +4436,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -4476,16 +4476,16 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4494,10 +4494,10 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4537,16 +4537,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4555,25 +4555,25 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -4600,29 +4600,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
         <v>2</v>
@@ -4634,25 +4634,25 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
         <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
         <v>1</v>
@@ -4682,38 +4682,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -4722,19 +4722,19 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
         <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
         <v>1</v>
@@ -4764,29 +4764,29 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -4801,31 +4801,31 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -4846,12 +4846,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4861,23 +4861,23 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4886,22 +4886,22 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -4928,12 +4928,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4943,14 +4943,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3:35 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -4965,25 +4965,25 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5010,35 +5010,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5047,31 +5047,31 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5092,67 +5092,1379 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Elijah Strong</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>15:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Ali Dibba</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>15:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Chendall Weaver</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>15:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Dellquan Warren</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Nic Codie</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>15:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Pop Isaacs</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>15:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Camden Heide</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>15:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Christ Essandoko</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>15:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>Tyler Harris</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>VAN</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>VAN@UK</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H57" t="n">
+      <c r="H72" t="n">
         <v>-1</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Zach Clemence</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>15:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,7 +6542,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -5243,10 +6555,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5256,33 +6568,33 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,35 +582,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -619,25 +619,25 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -664,22 +664,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -761,11 +761,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
         <v>11</v>
@@ -786,22 +786,22 @@
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
@@ -828,68 +828,68 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
         <v>4</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -910,22 +910,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1007,14 +1007,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
         <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1089,42 +1089,42 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>6</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
@@ -1132,10 +1132,10 @@
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1363,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q11" t="n">
         <v>7</v>
@@ -2073,14 +2073,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -2101,13 +2101,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2155,17 +2155,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2177,25 +2177,25 @@
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,62 +2222,62 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>13</v>
       </c>
       <c r="I22" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
         <v>2</v>
@@ -2304,62 +2304,62 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I23" t="n">
+        <v>16</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q23" t="n">
         <v>6</v>
       </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
@@ -2401,15 +2401,15 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" t="n">
         <v>6</v>
       </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="n">
         <v>2</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2483,17 +2483,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25" t="n">
         <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
@@ -2647,11 +2647,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
         <v>6</v>
@@ -2675,19 +2675,19 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q27" t="n">
         <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27" t="n">
         <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2729,11 +2729,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q29" t="n">
         <v>9</v>
@@ -2878,59 +2878,59 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
+        <v>11</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
         <v>5</v>
       </c>
-      <c r="I30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>1</v>
@@ -2960,62 +2960,62 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
+        <v>8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="n">
         <v>4</v>
       </c>
-      <c r="I31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3</v>
-      </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3534,65 +3534,65 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
+        <v>12</v>
+      </c>
+      <c r="I38" t="n">
         <v>11</v>
       </c>
-      <c r="I38" t="n">
-        <v>12</v>
-      </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q38" t="n">
         <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S38" t="n">
         <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>2</v>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3635,49 +3635,49 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
         <v>5</v>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q39" t="n">
         <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3698,50 +3698,50 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q40" t="n">
         <v>4</v>
@@ -3750,10 +3750,10 @@
         <v>7</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3887,7 +3887,7 @@
         <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -3905,19 +3905,19 @@
         <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q42" t="n">
         <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
         <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -4190,68 +4190,68 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
         <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -4272,22 +4272,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -4297,10 +4297,10 @@
         <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q47" t="n">
         <v>2</v>
@@ -4327,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -4354,17 +4354,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4373,43 +4373,43 @@
         </is>
       </c>
       <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
         <v>4</v>
       </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2</v>
-      </c>
-      <c r="P48" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2</v>
-      </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4436,38 +4436,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -4476,16 +4476,16 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4494,10 +4494,10 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4518,35 +4518,35 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4561,25 +4561,25 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -4600,22 +4600,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -4625,10 +4625,10 @@
         <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -4640,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" t="n">
         <v>1</v>
@@ -4764,68 +4764,68 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" t="n">
         <v>6</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>25</v>
-      </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4846,68 +4846,68 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4943,14 +4943,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4980,10 +4980,10 @@
         <v>1</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5010,41 +5010,41 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -5053,19 +5053,19 @@
         <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5107,11 +5107,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -5120,22 +5120,22 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -5174,29 +5174,29 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -5214,22 +5214,22 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -5256,32 +5256,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -5296,22 +5296,22 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
@@ -5338,32 +5338,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -5375,25 +5375,25 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
@@ -5420,50 +5420,50 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -5475,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -5502,32 +5502,32 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -5539,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -5584,32 +5584,32 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -5624,10 +5624,10 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -5666,62 +5666,62 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -5748,35 +5748,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -5785,25 +5785,25 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5845,17 +5845,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -5870,16 +5870,16 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -5912,32 +5912,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -5946,22 +5946,22 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5994,56 +5994,56 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
@@ -6076,26 +6076,26 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6113,19 +6113,19 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
@@ -6158,35 +6158,35 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Christ Essandoko</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H70" t="n">
         <v>-1</v>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6195,31 +6195,31 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6240,35 +6240,35 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>-1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6277,31 +6277,31 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -6322,22 +6322,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:42 - 1st Half</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -6359,25 +6359,25 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
@@ -6404,22 +6404,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -6459,12 +6459,176 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
       </c>
       <c r="V73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Camden Heide</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>7:42 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>7:42 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6512,37 +6676,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -6551,11 +6715,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -6568,7 +6732,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -6581,7 +6745,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6594,7 +6758,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,20 +597,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -619,19 +619,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -761,53 +761,53 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
         <v>7</v>
       </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>6</v>
-      </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -828,35 +828,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -865,31 +865,31 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
         <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -925,17 +925,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
@@ -992,32 +992,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1029,31 +1029,31 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1089,20 +1089,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -2073,14 +2073,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2101,13 +2101,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2155,14 +2155,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2237,14 +2237,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -2265,13 +2265,13 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2423,25 +2423,25 @@
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>2</v>
@@ -2483,53 +2483,53 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I25" t="n">
+        <v>12</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>6</v>
+      </c>
+      <c r="V25" t="n">
         <v>8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
-      <c r="V25" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2675,13 +2675,13 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="n">
         <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S27" t="n">
         <v>2</v>
@@ -2729,11 +2729,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2878,62 +2878,62 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
+        <v>14</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>11</v>
       </c>
-      <c r="I30" t="n">
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
         <v>8</v>
       </c>
-      <c r="J30" t="n">
-        <v>6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
@@ -2960,62 +2960,62 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
+        <v>11</v>
+      </c>
+      <c r="I31" t="n">
         <v>8</v>
       </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
@@ -3221,17 +3221,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3264,10 +3264,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3559,7 +3559,7 @@
         <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -3577,19 +3577,19 @@
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q38" t="n">
         <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S38" t="n">
         <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U38" t="n">
         <v>1</v>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q42" t="n">
         <v>2</v>
@@ -3944,68 +3944,68 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>7</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4026,56 +4026,56 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P44" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -4108,56 +4108,56 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4166,10 +4166,10 @@
         <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4190,68 +4190,68 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
+        <v>6</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
         <v>5</v>
       </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -4272,68 +4272,68 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
         <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -4354,62 +4354,62 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4436,17 +4436,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4455,43 +4455,43 @@
         </is>
       </c>
       <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
         <v>4</v>
       </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>2</v>
-      </c>
-      <c r="P49" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2</v>
-      </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -4518,38 +4518,38 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4558,16 +4558,16 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4576,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -4764,59 +4764,59 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
         <v>1</v>
@@ -4846,32 +4846,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -4886,28 +4886,28 @@
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
         <v>2</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4928,68 +4928,68 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -5010,56 +5010,56 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -5068,10 +5068,10 @@
         <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -5092,12 +5092,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5107,20 +5107,20 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
@@ -5129,25 +5129,25 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>2</v>
       </c>
       <c r="P57" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5189,17 +5189,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5214,22 +5214,22 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -5338,29 +5338,29 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -5378,28 +5378,28 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -5420,56 +5420,56 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5478,10 +5478,10 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5502,12 +5502,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5517,17 +5517,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -5539,25 +5539,25 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P62" t="n">
         <v>9</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -5748,22 +5748,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -5773,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -5785,19 +5785,19 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -5830,32 +5830,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -5867,19 +5867,19 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>6</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -5912,32 +5912,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -5946,28 +5946,28 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6019,31 +6019,31 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
@@ -6076,22 +6076,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -6107,19 +6107,19 @@
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15:16 - 2nd Half</t>
+          <t>11:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -6365,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -6486,12 +6486,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>7:42 - 1st Half</t>
+          <t>3:13 - 1st Half</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -6629,6 +6629,88 @@
         <v>0</v>
       </c>
       <c r="V75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Camden Heide</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>3:13 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6680,7 +6762,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -6689,37 +6771,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -6732,7 +6814,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -6745,7 +6827,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6758,7 +6840,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,41 +597,41 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
         <v>6</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -761,26 +761,26 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
@@ -789,19 +789,19 @@
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
         <v>4</v>
@@ -843,17 +843,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -925,20 +925,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
+        <v>9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
         <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>1</v>
@@ -1089,17 +1089,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -1114,28 +1114,28 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
         <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1894,17 +1894,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1913,37 +1913,37 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q18" t="n">
         <v>6</v>
       </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1952,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1976,12 +1976,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19" t="n">
         <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2019,25 +2019,25 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2058,68 +2058,68 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
+        <v>9</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="n">
         <v>5</v>
       </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2180,22 +2180,22 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2237,20 +2237,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" t="n">
         <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2259,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q22" t="n">
         <v>3</v>
@@ -2304,62 +2304,62 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I23" t="n">
+        <v>11</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
         <v>16</v>
       </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>34</v>
-      </c>
       <c r="Q23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
@@ -2386,62 +2386,62 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
         <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R24" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U24" t="n">
         <v>2</v>
@@ -2483,11 +2483,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" t="n">
         <v>12</v>
@@ -2508,22 +2508,22 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q25" t="n">
         <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
         <v>6</v>
@@ -2550,17 +2550,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2569,49 +2569,49 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2632,68 +2632,68 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
         <v>24</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -2757,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2893,47 +2893,47 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I30" t="n">
+        <v>16</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>6</v>
+      </c>
+      <c r="R30" t="n">
         <v>12</v>
       </c>
-      <c r="J30" t="n">
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="n">
         <v>4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>8</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
@@ -2975,17 +2975,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
         <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
         <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q31" t="n">
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
@@ -3221,17 +3221,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3249,19 +3249,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3549,50 +3549,50 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
         <v>4</v>
       </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>8</v>
-      </c>
       <c r="S38" t="n">
         <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>2</v>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3635,19 +3635,19 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I39" t="n">
         <v>12</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3656,16 +3656,16 @@
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P39" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q39" t="n">
         <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S39" t="n">
         <v>2</v>
@@ -3698,17 +3698,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3717,28 +3717,28 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>19</v>
@@ -3747,19 +3747,19 @@
         <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3780,12 +3780,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3799,49 +3799,49 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5</v>
+      </c>
+      <c r="P41" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
         <v>6</v>
       </c>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3877,23 +3877,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3905,19 +3905,19 @@
         <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3944,12 +3944,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3959,47 +3959,47 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
+        <v>10</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="n">
         <v>7</v>
       </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>3</v>
-      </c>
-      <c r="P43" t="n">
-        <v>22</v>
-      </c>
       <c r="Q43" t="n">
         <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4026,12 +4026,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4045,16 +4045,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J44" t="n">
         <v>5</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
@@ -4063,31 +4063,31 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4108,68 +4108,68 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
+        <v>8</v>
+      </c>
+      <c r="I45" t="n">
         <v>6</v>
       </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -4190,17 +4190,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4209,37 +4209,37 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I46" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4248,10 +4248,10 @@
         <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4272,32 +4272,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
+        <v>7</v>
+      </c>
+      <c r="I47" t="n">
         <v>5</v>
       </c>
-      <c r="I47" t="n">
-        <v>3</v>
-      </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -4309,19 +4309,19 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P47" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -4354,56 +4354,56 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
+        <v>6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
         <v>5</v>
       </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O48" t="n">
         <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -4412,10 +4412,10 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -4600,22 +4600,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -4625,43 +4625,43 @@
         <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4682,22 +4682,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -4707,10 +4707,10 @@
         <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -4722,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -4764,59 +4764,59 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
         <v>1</v>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -4889,7 +4889,7 @@
         <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4928,35 +4928,35 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -4965,31 +4965,31 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5010,32 +5010,32 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -5047,25 +5047,25 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
         <v>2</v>
@@ -5092,12 +5092,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -5117,10 +5117,10 @@
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
@@ -5129,25 +5129,25 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
         <v>2</v>
       </c>
       <c r="P57" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5189,17 +5189,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5214,28 +5214,28 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -5256,29 +5256,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
         <v>2</v>
@@ -5299,7 +5299,7 @@
         <v>2</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -5308,10 +5308,10 @@
         <v>3</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
@@ -5338,12 +5338,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5353,53 +5353,53 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5420,29 +5420,29 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
         <v>2</v>
@@ -5457,25 +5457,25 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -5502,29 +5502,29 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -5542,28 +5542,28 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -5584,17 +5584,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5606,10 +5606,10 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -5624,22 +5624,22 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P63" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
         <v>0</v>
@@ -5666,22 +5666,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jaden Newell</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -5748,22 +5748,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -5773,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -5791,13 +5791,13 @@
         <v>1</v>
       </c>
       <c r="P65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -5830,22 +5830,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -5867,13 +5867,13 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -5912,32 +5912,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -5949,19 +5949,19 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
         <v>6</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5994,32 +5994,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -6028,28 +6028,28 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6101,31 +6101,31 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
@@ -6158,56 +6158,56 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -6365,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Christ Essandoko</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -6511,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -6523,25 +6523,25 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -6608,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -6665,17 +6665,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3:13 - 1st Half</t>
+          <t>15:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -6693,13 +6693,13 @@
         <v>1</v>
       </c>
       <c r="P76" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
@@ -6711,6 +6711,88 @@
         <v>0</v>
       </c>
       <c r="V76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>15:11 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6762,7 +6844,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -6775,7 +6857,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -6784,33 +6866,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6827,7 +6909,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6840,7 +6922,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,14 +597,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
@@ -625,13 +625,13 @@
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -746,38 +746,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>19</v>
+      </c>
+      <c r="I4" t="n">
         <v>17</v>
       </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -786,25 +786,25 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
         <v>11</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>5</v>
@@ -828,65 +828,65 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>17</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
         <v>11</v>
       </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>4</v>
       </c>
-      <c r="R5" t="n">
-        <v>6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>5</v>
@@ -925,20 +925,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -950,16 +950,16 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -2155,17 +2155,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2180,22 +2180,22 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>9</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="n">
         <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>7</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2329,10 +2329,10 @@
         <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2347,19 +2347,19 @@
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="n">
         <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
@@ -2729,14 +2729,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2893,14 +2893,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J30" t="n">
         <v>7</v>
@@ -2918,22 +2918,22 @@
         <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
@@ -3221,17 +3221,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -4354,68 +4354,68 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
       </c>
       <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
         <v>5</v>
       </c>
-      <c r="L48" t="n">
-        <v>2</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>5</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2</v>
-      </c>
-      <c r="P48" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>9</v>
-      </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4455,49 +4455,49 @@
         </is>
       </c>
       <c r="H49" t="n">
+        <v>6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
         <v>5</v>
       </c>
-      <c r="I49" t="n">
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
         <v>5</v>
       </c>
-      <c r="J49" t="n">
-        <v>2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R49" t="n">
+        <v>9</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
         <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4518,68 +4518,68 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4600,68 +4600,68 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
         <v>4</v>
       </c>
-      <c r="I51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
         <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4704,16 +4704,16 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -4722,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4734,10 +4734,10 @@
         <v>2</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -4764,17 +4764,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4789,10 +4789,10 @@
         <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -4804,10 +4804,10 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4819,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4871,7 +4871,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -4883,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -4956,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -4968,16 +4968,16 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5010,17 +5010,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5029,13 +5029,13 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -5050,28 +5050,28 @@
         <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
         <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5092,17 +5092,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5114,16 +5114,16 @@
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -5132,28 +5132,28 @@
         <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>25</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5196,46 +5196,46 @@
         <v>3</v>
       </c>
       <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
         <v>4</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
         <v>6</v>
       </c>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2</v>
-      </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5256,12 +5256,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5278,10 +5278,10 @@
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -5296,28 +5296,28 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
       </c>
       <c r="R59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -5338,62 +5338,62 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
@@ -5420,12 +5420,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5435,41 +5435,41 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5517,17 +5517,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -5584,56 +5584,56 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
         <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R63" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -5666,29 +5666,29 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jaden Newell</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -5700,28 +5700,28 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -5748,32 +5748,32 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -5788,16 +5788,16 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -5830,32 +5830,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -5870,22 +5870,22 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -5912,17 +5912,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Jaden Newell</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -5949,13 +5949,13 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -5994,29 +5994,29 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -6034,16 +6034,16 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
@@ -6076,17 +6076,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6110,28 +6110,28 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6183,31 +6183,31 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6259,49 +6259,49 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -6322,35 +6322,35 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
         <v>-1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -6359,31 +6359,31 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O72" t="n">
         <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>15:11 - 2nd Half</t>
+          <t>6:42 - 2nd Half</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,41 +597,41 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="n">
         <v>6</v>
       </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
       <c r="R2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -664,35 +664,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -741,73 +741,73 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -823,73 +823,73 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -925,14 +925,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -953,25 +953,25 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>13</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
         <v>6</v>
       </c>
-      <c r="R6" t="n">
-        <v>11</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5</v>
-      </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -992,17 +992,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1011,49 +1011,49 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1064,22 +1064,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1093,49 +1093,49 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>11</v>
+      </c>
+      <c r="S8" t="n">
         <v>4</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>14</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1156,35 +1156,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1196,28 +1196,28 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1257,16 +1257,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
         <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1275,25 +1275,25 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1310,78 +1310,78 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1402,17 +1402,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1421,49 +1421,49 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q12" t="n">
         <v>6</v>
       </c>
       <c r="R12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1484,62 +1484,62 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>5</v>
       </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>31</v>
-      </c>
       <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
         <v>5</v>
       </c>
-      <c r="R13" t="n">
-        <v>15</v>
-      </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1585,49 +1585,49 @@
         </is>
       </c>
       <c r="H14" t="n">
+        <v>18</v>
+      </c>
+      <c r="I14" t="n">
         <v>15</v>
       </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1638,66 +1638,66 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>10</v>
       </c>
-      <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>33</v>
-      </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1706,10 +1706,10 @@
         <v>4</v>
       </c>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1720,27 +1720,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1749,49 +1749,49 @@
         </is>
       </c>
       <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
         <v>20</v>
       </c>
-      <c r="I16" t="n">
-        <v>23</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>34</v>
-      </c>
       <c r="Q16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1812,35 +1812,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1849,31 +1849,31 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1894,17 +1894,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1913,49 +1913,49 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>8</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
         <v>4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>6</v>
-      </c>
-      <c r="R18" t="n">
-        <v>7</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1976,17 +1976,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1995,49 +1995,49 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
+        <v>17</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" t="n">
         <v>11</v>
       </c>
-      <c r="J19" t="n">
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
         <v>6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
-      <c r="V19" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2077,49 +2077,49 @@
         </is>
       </c>
       <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>15</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="n">
         <v>12</v>
       </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>5</v>
-      </c>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2130,72 +2130,72 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>4</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>32</v>
-      </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2212,27 +2212,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2241,49 +2241,49 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
         <v>8</v>
       </c>
-      <c r="J22" t="n">
-        <v>4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3</v>
-      </c>
-      <c r="P22" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
         <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2294,72 +2294,72 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
@@ -2376,78 +2376,78 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2458,27 +2458,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2487,49 +2487,49 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
         <v>4</v>
       </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2540,27 +2540,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2569,49 +2569,49 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9</v>
+      </c>
+      <c r="R26" t="n">
+        <v>16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
         <v>6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>10</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
-      <c r="T26" t="n">
-        <v>6</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2622,78 +2622,78 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2714,68 +2714,68 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U28" t="n">
         <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2786,78 +2786,78 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,78 +2868,78 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,78 +2950,78 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,27 +3032,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3061,38 +3061,38 @@
         </is>
       </c>
       <c r="H32" t="n">
+        <v>19</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
         <v>22</v>
       </c>
-      <c r="I32" t="n">
-        <v>16</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="Q32" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" t="n">
         <v>7</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>2</v>
-      </c>
-      <c r="P32" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>7</v>
-      </c>
-      <c r="R32" t="n">
-        <v>8</v>
-      </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
@@ -3100,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,27 +3114,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3143,49 +3143,49 @@
         </is>
       </c>
       <c r="H33" t="n">
+        <v>18</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6</v>
+      </c>
+      <c r="K33" t="n">
         <v>5</v>
       </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3196,78 +3196,78 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="n">
         <v>5</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3</v>
-      </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -3278,66 +3278,66 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3346,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3370,17 +3370,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3389,10 +3389,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -3401,37 +3401,37 @@
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
         <v>3</v>
       </c>
       <c r="P36" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q36" t="n">
+        <v>6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>11</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="n">
+        <v>5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
         <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>7</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>4</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3452,68 +3452,68 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>9</v>
       </c>
-      <c r="J37" t="n">
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" t="n">
         <v>4</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2</v>
-      </c>
-      <c r="M37" t="n">
-        <v>2</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2</v>
-      </c>
       <c r="V37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3534,62 +3534,62 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>2</v>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3616,68 +3616,68 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>4</v>
       </c>
-      <c r="K39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>3</v>
-      </c>
-      <c r="P39" t="n">
-        <v>33</v>
-      </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3688,17 +3688,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3717,46 +3717,46 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P40" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>2</v>
@@ -3770,27 +3770,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3799,43 +3799,43 @@
         </is>
       </c>
       <c r="H41" t="n">
+        <v>13</v>
+      </c>
+      <c r="I41" t="n">
         <v>11</v>
       </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P41" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q41" t="n">
         <v>4</v>
       </c>
       <c r="R41" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
         <v>2</v>
@@ -3852,27 +3852,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3881,49 +3881,49 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3934,66 +3934,66 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4026,17 +4026,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4045,49 +4045,49 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I44" t="n">
+        <v>12</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2</v>
+      </c>
+      <c r="U44" t="n">
+        <v>6</v>
+      </c>
+      <c r="V44" t="n">
         <v>8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>7</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4108,17 +4108,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4127,49 +4127,49 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I45" t="n">
+        <v>10</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
         <v>6</v>
       </c>
-      <c r="J45" t="n">
-        <v>3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4190,17 +4190,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4209,49 +4209,49 @@
         </is>
       </c>
       <c r="H46" t="n">
+        <v>9</v>
+      </c>
+      <c r="I46" t="n">
         <v>8</v>
       </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4272,17 +4272,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4291,34 +4291,34 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
         <v>3</v>
@@ -4327,13 +4327,13 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4354,35 +4354,35 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4394,22 +4394,22 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4426,27 +4426,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4455,46 +4455,46 @@
         </is>
       </c>
       <c r="H49" t="n">
+        <v>24</v>
+      </c>
+      <c r="I49" t="n">
+        <v>22</v>
+      </c>
+      <c r="J49" t="n">
+        <v>8</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>8</v>
+      </c>
+      <c r="R49" t="n">
+        <v>17</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="n">
         <v>6</v>
       </c>
-      <c r="I49" t="n">
-        <v>10</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>5</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>5</v>
-      </c>
-      <c r="O49" t="n">
-        <v>2</v>
-      </c>
-      <c r="P49" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q49" t="n">
+      <c r="U49" t="n">
         <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>9</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2</v>
       </c>
       <c r="V49" t="n">
         <v>4</v>
@@ -4508,78 +4508,78 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J50" t="n">
         <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L50" t="n">
         <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O50" t="n">
         <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U50" t="n">
         <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -4590,27 +4590,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4619,13 +4619,13 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -4637,31 +4637,31 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -4672,36 +4672,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4713,31 +4713,31 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -4754,72 +4754,72 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
         <v>4</v>
       </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2</v>
-      </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4846,17 +4846,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4865,13 +4865,13 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -4880,34 +4880,34 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
         <v>2</v>
       </c>
       <c r="P54" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q54" t="n">
         <v>7</v>
       </c>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4943,53 +4943,53 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
         <v>4</v>
       </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1</v>
-      </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5010,17 +5010,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5029,43 +5029,43 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5092,29 +5092,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -5135,22 +5135,22 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
         <v>2</v>
@@ -5174,17 +5174,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5193,34 +5193,34 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J58" t="n">
         <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
         <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P58" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
         <v>6</v>
@@ -5229,13 +5229,13 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -5256,17 +5256,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5275,17 +5275,17 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I59" t="n">
+        <v>14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
         <v>4</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
@@ -5296,28 +5296,28 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P59" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -5338,17 +5338,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5357,43 +5357,43 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P60" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R60" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
@@ -5420,68 +5420,68 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J61" t="n">
         <v>4</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
         <v>1</v>
       </c>
       <c r="P61" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -5502,65 +5502,65 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J62" t="n">
         <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P62" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
         <v>2</v>
@@ -5584,68 +5584,68 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P63" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -5666,35 +5666,35 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -5703,31 +5703,31 @@
         <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
         <v>1</v>
       </c>
       <c r="P64" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R64" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -5748,29 +5748,29 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J65" t="n">
         <v>2</v>
@@ -5785,31 +5785,31 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P65" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -5830,12 +5830,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5849,16 +5849,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I66" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" t="n">
         <v>4</v>
       </c>
-      <c r="J66" t="n">
-        <v>2</v>
-      </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -5867,25 +5867,25 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jaden Newell</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5931,19 +5931,19 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -5952,16 +5952,16 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5994,17 +5994,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6013,43 +6013,43 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -6076,17 +6076,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6095,49 +6095,49 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P69" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
         <v>6</v>
       </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -6158,17 +6158,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6177,49 +6177,49 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
         <v>1</v>
       </c>
       <c r="P70" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -6240,17 +6240,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -6259,37 +6259,37 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6341,19 +6341,19 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -6362,28 +6362,28 @@
         <v>3</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q72" t="n">
         <v>2</v>
       </c>
       <c r="R72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -6404,17 +6404,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6423,37 +6423,37 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P73" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
@@ -6462,10 +6462,10 @@
         <v>1</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -6486,62 +6486,62 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:09 - 1st Half</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -6568,32 +6568,32 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -6611,19 +6611,19 @@
         <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
@@ -6650,32 +6650,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>6:42 - 2nd Half</t>
+          <t>12:15 - 1st Half</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -6690,22 +6690,22 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -6732,67 +6732,2937 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+      <c r="P77" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2</v>
+      </c>
+      <c r="P79" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2</v>
+      </c>
+      <c r="P80" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Nordin Kapic</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>2</v>
+      </c>
+      <c r="P81" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Ali Dibba</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" t="n">
+        <v>6</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+      <c r="P84" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>6</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>4</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2</v>
+      </c>
+      <c r="P86" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Nic Codie</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>4</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>PJ Carter</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>OU@LSU</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>8:09 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>OU@LSU</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>8:09 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Simeon Wilcher</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Amaree Abram</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ALA@TENN</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>12:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Dayton Forsythe</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>OU@LSU</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>8:09 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Elijah Strong</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>3</v>
+      </c>
+      <c r="P93" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>7</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Jaden Newell</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="n">
+        <v>3</v>
+      </c>
+      <c r="P95" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Zach Clemence</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>3</v>
+      </c>
+      <c r="P98" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Bishop Boswell</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ALA@TENN</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>12:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Camden Heide</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>6</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="n">
+        <v>4</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>DeWayne Brown II</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ALA@TENN</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>12:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Dellquan Warren</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>ALA@TENN</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>12:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>MIZ@MSST</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>2</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Jalen Reece</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>OU@LSU</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>8:09 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>ALA@TENN</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>12:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Tyler Harris</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>VAN@UK</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Christ Essandoko</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Federiko Federiko</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ALA@TENN</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>12:15 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1</v>
+      </c>
+      <c r="P111" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>Jacari Lane</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>TA&amp;M</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>TEX@TA&amp;M</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>6:42 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
         <v>-3</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
         <v>10</v>
       </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>3</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6844,33 +9714,33 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -6879,14 +9749,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6896,10 +9766,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -6909,10 +9779,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -6922,10 +9792,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1171,20 +1171,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
         <v>6</v>
       </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1196,28 +1196,28 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1238,35 +1238,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1320,62 +1320,62 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
         <v>4</v>
       </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1402,68 +1402,68 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>16</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>13</v>
       </c>
-      <c r="I12" t="n">
-        <v>20</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
       <c r="R12" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S12" t="n">
         <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1484,68 +1484,68 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1648,41 +1648,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
-        <v>7</v>
-      </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1730,62 +1730,62 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
         <v>6</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1812,35 +1812,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1849,25 +1849,25 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2155,11 +2155,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2177,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2319,15 +2319,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
       <c r="J23" t="n">
         <v>2</v>
       </c>
@@ -2344,22 +2344,22 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2796,12 +2796,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2811,17 +2811,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2893,17 +2893,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2930,10 +2930,10 @@
         <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2975,23 +2975,23 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3325,25 +3325,25 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3467,53 +3467,53 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H37" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" t="n">
         <v>6</v>
       </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2</v>
-      </c>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
       <c r="V37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -3549,14 +3549,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -3571,19 +3571,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3592,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -4272,68 +4272,68 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
         <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4354,68 +4354,68 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -4697,11 +4697,11 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4725,13 +4725,13 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -4779,17 +4779,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -4801,31 +4801,31 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
         <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -5117,7 +5117,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -6240,32 +6240,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>8</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -6274,34 +6274,34 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" t="n">
         <v>4</v>
       </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>1</v>
-      </c>
-      <c r="R71" t="n">
-        <v>2</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -6322,17 +6322,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6341,49 +6341,49 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6423,49 +6423,49 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I73" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P73" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R73" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -6501,11 +6501,11 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -6568,12 +6568,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6587,49 +6587,49 @@
         </is>
       </c>
       <c r="H75" t="n">
+        <v>6</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
         <v>5</v>
       </c>
-      <c r="I75" t="n">
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
         <v>5</v>
       </c>
-      <c r="J75" t="n">
-        <v>2</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P75" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R75" t="n">
+        <v>9</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
         <v>4</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1</v>
-      </c>
-      <c r="T75" t="n">
-        <v>2</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0</v>
-      </c>
-      <c r="V75" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6650,62 +6650,62 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H76" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
         <v>4</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>4</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0</v>
-      </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -6732,38 +6732,38 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H77" t="n">
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -6772,16 +6772,16 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P77" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6836,16 +6836,16 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -6854,10 +6854,10 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6866,10 +6866,10 @@
         <v>2</v>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
@@ -6896,17 +6896,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6921,10 +6921,10 @@
         <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -6936,10 +6936,10 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
@@ -6978,17 +6978,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -7000,13 +7000,13 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -7021,19 +7021,19 @@
         <v>2</v>
       </c>
       <c r="P80" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
       </c>
       <c r="R80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
@@ -7060,17 +7060,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -7082,13 +7082,13 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -7097,25 +7097,25 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
         <v>2</v>
       </c>
       <c r="P81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
       </c>
       <c r="R81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
@@ -7142,17 +7142,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7161,49 +7161,49 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P82" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7224,17 +7224,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7246,43 +7246,43 @@
         <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V83" t="n">
         <v>2</v>
@@ -7306,62 +7306,62 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H84" t="n">
         <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+      <c r="P84" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
         <v>4</v>
       </c>
-      <c r="K84" t="n">
-        <v>2</v>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1</v>
-      </c>
-      <c r="O84" t="n">
-        <v>2</v>
-      </c>
-      <c r="P84" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>1</v>
-      </c>
-      <c r="R84" t="n">
-        <v>6</v>
-      </c>
       <c r="S84" t="n">
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
@@ -7388,17 +7388,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7410,10 +7410,10 @@
         <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -7425,25 +7425,25 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U85" t="n">
         <v>2</v>
@@ -7470,12 +7470,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -7492,40 +7492,40 @@
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
         <v>2</v>
       </c>
       <c r="P86" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
       </c>
       <c r="R86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
@@ -7552,17 +7552,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -7574,34 +7574,34 @@
         <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
@@ -7610,10 +7610,10 @@
         <v>1</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -7634,22 +7634,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -7659,7 +7659,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -7674,22 +7674,22 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P88" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
       </c>
       <c r="R88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S88" t="n">
         <v>1</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -7716,32 +7716,32 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H89" t="n">
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -7750,22 +7750,22 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
         <v>1</v>
       </c>
       <c r="P89" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -7798,32 +7798,32 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -7832,22 +7832,22 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
       </c>
       <c r="R90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S90" t="n">
         <v>1</v>
@@ -7880,32 +7880,32 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -7920,22 +7920,22 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S91" t="n">
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -7962,32 +7962,32 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -7996,25 +7996,25 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92" t="n">
         <v>1</v>
@@ -8044,62 +8044,62 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H93" t="n">
         <v>1</v>
       </c>
       <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
         <v>4</v>
       </c>
-      <c r="J93" t="n">
-        <v>2</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>3</v>
-      </c>
-      <c r="P93" t="n">
-        <v>12</v>
-      </c>
       <c r="Q93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
@@ -8126,12 +8126,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jaden Newell</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -8148,10 +8148,10 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -8166,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P94" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
@@ -8208,17 +8208,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Jaden Newell</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8230,40 +8230,40 @@
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -8290,17 +8290,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -8312,40 +8312,40 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P96" t="n">
         <v>6</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -8409,10 +8409,10 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97" t="n">
         <v>6</v>
@@ -8454,32 +8454,32 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H98" t="n">
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -8494,28 +8494,28 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -8536,17 +8536,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8570,28 +8570,28 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
       </c>
       <c r="R99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
@@ -8618,32 +8618,32 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -8658,28 +8658,28 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P100" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -8700,17 +8700,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
         <v>2</v>
@@ -8734,28 +8734,28 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O101" t="n">
         <v>1</v>
       </c>
       <c r="P101" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
@@ -8782,32 +8782,32 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -8822,22 +8822,22 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
@@ -8864,22 +8864,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -8892,34 +8892,34 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
       </c>
       <c r="R103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
@@ -8946,22 +8946,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -8974,34 +8974,34 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U104" t="n">
         <v>0</v>
@@ -9028,36 +9028,36 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:42 - 1st Half</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
         <v>4</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="n">
-        <v>1</v>
-      </c>
       <c r="L105" t="n">
         <v>0</v>
       </c>
@@ -9065,16 +9065,16 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P105" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R105" t="n">
         <v>5</v>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -9110,35 +9110,35 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>8:09 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H106" t="n">
         <v>-1</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -9147,16 +9147,16 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R106" t="n">
         <v>5</v>
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="V106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -9192,22 +9192,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
@@ -9274,17 +9274,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Christ Essandoko</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -9293,13 +9293,13 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -9311,19 +9311,19 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
       </c>
       <c r="R108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
@@ -9356,17 +9356,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -9393,25 +9393,25 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
       </c>
       <c r="R109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S109" t="n">
         <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -9438,26 +9438,26 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Ethan Burg</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -9475,13 +9475,13 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P110" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q110" t="n">
         <v>0</v>
@@ -9493,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
@@ -9520,22 +9520,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>12:15 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -9557,25 +9557,25 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q111" t="n">
         <v>0</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
@@ -9602,22 +9602,22 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:36 - 1st Half</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -9639,25 +9639,25 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q112" t="n">
         <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9766,7 +9766,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -9775,27 +9775,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,14 +679,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1171,47 +1171,47 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
         <v>6</v>
       </c>
       <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1417,53 +1417,53 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
         <v>10</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
         <v>6</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4</v>
-      </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1745,47 +1745,47 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
+      <c r="R16" t="n">
         <v>7</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>6</v>
-      </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2155,20 +2155,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
@@ -2341,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2401,11 +2401,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2429,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2458,51 +2458,51 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,25 +2511,25 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2550,17 +2550,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2569,13 +2569,13 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
@@ -2584,34 +2584,34 @@
         <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q26" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2632,68 +2632,68 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
+        <v>20</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>9</v>
+      </c>
+      <c r="R27" t="n">
+        <v>16</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" t="n">
         <v>5</v>
       </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -2709,37 +2709,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -2751,31 +2751,31 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2796,68 +2796,68 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I29" t="n">
+        <v>13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>10</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="n">
         <v>6</v>
       </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2893,20 +2893,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2960,62 +2960,62 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3032,72 +3032,72 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3124,17 +3124,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3143,37 +3143,37 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q33" t="n">
         <v>6</v>
       </c>
-      <c r="K33" t="n">
-        <v>5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3182,10 +3182,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3206,12 +3206,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3225,16 +3225,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I34" t="n">
         <v>11</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3249,25 +3249,25 @@
         <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -3288,35 +3288,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J35" t="n">
         <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3325,31 +3325,31 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
         <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -3365,73 +3365,73 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>17</v>
+        <v>-3</v>
       </c>
       <c r="I36" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q36" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3452,68 +3452,68 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I37" t="n">
+        <v>17</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" t="n">
         <v>11</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
         <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2</v>
-      </c>
-      <c r="U37" t="n">
-        <v>6</v>
-      </c>
-      <c r="V37" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3549,50 +3549,50 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H38" t="n">
+        <v>10</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
         <v>5</v>
       </c>
-      <c r="I38" t="n">
-        <v>7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2</v>
-      </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V38" t="n">
         <v>6</v>
@@ -3631,17 +3631,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3656,16 +3656,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3688,78 +3688,78 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="n">
         <v>8</v>
       </c>
-      <c r="J40" t="n">
-        <v>4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>8</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2</v>
-      </c>
-      <c r="O40" t="n">
-        <v>3</v>
-      </c>
-      <c r="P40" t="n">
-        <v>23</v>
-      </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>5</v>
       </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2</v>
-      </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -3780,17 +3780,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3799,40 +3799,40 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I41" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P41" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>2</v>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3884,40 +3884,40 @@
         <v>13</v>
       </c>
       <c r="I42" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
         <v>2</v>
@@ -3944,68 +3944,68 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J43" t="n">
         <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
         <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -4021,73 +4021,73 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4108,12 +4108,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4127,49 +4127,49 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
         <v>6</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>10</v>
-      </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="n">
         <v>6</v>
       </c>
-      <c r="U45" t="n">
-        <v>2</v>
-      </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -4190,68 +4190,68 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q46" t="n">
         <v>4</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2</v>
-      </c>
-      <c r="O46" t="n">
-        <v>2</v>
-      </c>
-      <c r="P46" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4272,36 +4272,36 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
+        <v>10</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
         <v>6</v>
       </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
@@ -4312,28 +4312,28 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -4354,17 +4354,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4373,34 +4373,34 @@
         </is>
       </c>
       <c r="H48" t="n">
+        <v>9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
         <v>4</v>
       </c>
-      <c r="I48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
         <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
         <v>3</v>
@@ -4409,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V48" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -4426,17 +4426,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4455,43 +4455,43 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>2</v>
       </c>
       <c r="P49" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q49" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U49" t="n">
         <v>4</v>
@@ -4518,17 +4518,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4537,49 +4537,49 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I50" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>8</v>
+      </c>
+      <c r="R50" t="n">
+        <v>17</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="n">
         <v>6</v>
       </c>
-      <c r="L50" t="n">
-        <v>2</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>9</v>
-      </c>
-      <c r="R50" t="n">
-        <v>12</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>3</v>
-      </c>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4619,46 +4619,46 @@
         </is>
       </c>
       <c r="H51" t="n">
+        <v>23</v>
+      </c>
+      <c r="I51" t="n">
+        <v>19</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q51" t="n">
         <v>9</v>
       </c>
-      <c r="I51" t="n">
-        <v>8</v>
-      </c>
-      <c r="J51" t="n">
-        <v>7</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2</v>
-      </c>
-      <c r="O51" t="n">
-        <v>2</v>
-      </c>
-      <c r="P51" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
       <c r="R51" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>2</v>
@@ -4682,32 +4682,32 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -4716,34 +4716,34 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -4764,26 +4764,26 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
         <v>4</v>
@@ -4795,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
         <v>1</v>
@@ -4813,13 +4813,13 @@
         <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
         <v>2</v>
@@ -4841,37 +4841,37 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -4880,19 +4880,19 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
         <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q54" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R54" t="n">
         <v>8</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U54" t="n">
         <v>2</v>
@@ -4928,17 +4928,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4947,13 +4947,13 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -4962,28 +4962,28 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
         <v>2</v>
@@ -5010,17 +5010,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5029,49 +5029,49 @@
         </is>
       </c>
       <c r="H56" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" t="n">
         <v>5</v>
       </c>
-      <c r="I56" t="n">
-        <v>7</v>
-      </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -5092,68 +5092,68 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
         <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5174,56 +5174,56 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5232,10 +5232,10 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -5256,17 +5256,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5275,49 +5275,49 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I59" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
         <v>3</v>
       </c>
       <c r="P59" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -5338,17 +5338,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5357,22 +5357,22 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I60" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
         <v>4</v>
       </c>
-      <c r="K60" t="n">
-        <v>1</v>
-      </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>3</v>
       </c>
       <c r="P60" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q60" t="n">
         <v>4</v>
@@ -5393,13 +5393,13 @@
         <v>2</v>
       </c>
       <c r="T60" t="n">
+        <v>3</v>
+      </c>
+      <c r="U60" t="n">
         <v>4</v>
       </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -5420,12 +5420,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5439,49 +5439,49 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J61" t="n">
         <v>4</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P61" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="Q61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5502,17 +5502,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5521,49 +5521,49 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q62" t="n">
         <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U62" t="n">
         <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -5584,12 +5584,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5603,37 +5603,37 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I63" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3</v>
+      </c>
+      <c r="P63" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
         <v>4</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1</v>
-      </c>
-      <c r="O63" t="n">
-        <v>3</v>
-      </c>
-      <c r="P63" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>4</v>
-      </c>
-      <c r="R63" t="n">
-        <v>10</v>
       </c>
       <c r="S63" t="n">
         <v>2</v>
@@ -5666,12 +5666,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5688,43 +5688,43 @@
         <v>12</v>
       </c>
       <c r="I64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J64" t="n">
         <v>4</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P64" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q64" t="n">
         <v>4</v>
       </c>
       <c r="R64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S64" t="n">
         <v>2</v>
       </c>
       <c r="T64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
         <v>2</v>
@@ -5748,17 +5748,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5767,46 +5767,46 @@
         </is>
       </c>
       <c r="H65" t="n">
+        <v>12</v>
+      </c>
+      <c r="I65" t="n">
         <v>11</v>
       </c>
-      <c r="I65" t="n">
-        <v>12</v>
-      </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q65" t="n">
         <v>4</v>
       </c>
       <c r="R65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S65" t="n">
         <v>2</v>
       </c>
       <c r="T65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V65" t="n">
         <v>2</v>
@@ -5830,17 +5830,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5849,49 +5849,49 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I66" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q66" t="n">
         <v>4</v>
       </c>
-      <c r="K66" t="n">
-        <v>1</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1</v>
-      </c>
-      <c r="P66" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>3</v>
-      </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -5912,56 +5912,56 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5970,10 +5970,10 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -5994,17 +5994,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6016,16 +6016,16 @@
         <v>10</v>
       </c>
       <c r="I68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -6034,22 +6034,22 @@
         <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
         <v>19</v>
       </c>
       <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
         <v>4</v>
       </c>
-      <c r="R68" t="n">
-        <v>7</v>
-      </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -6076,17 +6076,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6095,13 +6095,13 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -6110,34 +6110,34 @@
         <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
         <v>3</v>
       </c>
       <c r="P69" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -6158,17 +6158,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="H70" t="n">
+        <v>10</v>
+      </c>
+      <c r="I70" t="n">
         <v>8</v>
       </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -6198,28 +6198,28 @@
         <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R70" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
         <v>2</v>
       </c>
       <c r="U70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6240,35 +6240,35 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I71" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6280,10 +6280,10 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q71" t="n">
         <v>2</v>
@@ -6292,16 +6292,16 @@
         <v>3</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -6322,17 +6322,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6341,49 +6341,49 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P72" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -6404,17 +6404,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6423,16 +6423,16 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>1</v>
@@ -6441,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q73" t="n">
         <v>2</v>
@@ -6456,16 +6456,16 @@
         <v>3</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U73" t="n">
         <v>1</v>
       </c>
       <c r="V73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -6486,50 +6486,50 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -6568,57 +6568,57 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I75" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
         <v>4</v>
       </c>
-      <c r="R75" t="n">
-        <v>9</v>
-      </c>
       <c r="S75" t="n">
         <v>0</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V75" t="n">
         <v>4</v>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6669,49 +6669,49 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I76" t="n">
         <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P76" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q76" t="n">
         <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -6732,68 +6732,68 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>5</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+      <c r="P77" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q77" t="n">
         <v>4</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
+      <c r="R77" t="n">
+        <v>9</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
         <v>4</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1</v>
-      </c>
-      <c r="P77" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6814,17 +6814,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -6833,43 +6833,43 @@
         </is>
       </c>
       <c r="H78" t="n">
+        <v>5</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
         <v>4</v>
       </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>2</v>
-      </c>
-      <c r="P78" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2</v>
-      </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6918,16 +6918,16 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -6936,10 +6936,10 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6948,10 +6948,10 @@
         <v>2</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
@@ -6978,17 +6978,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -7003,10 +7003,10 @@
         <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -7018,10 +7018,10 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -7033,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
@@ -7060,17 +7060,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -7082,13 +7082,13 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -7103,19 +7103,19 @@
         <v>2</v>
       </c>
       <c r="P81" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
       </c>
       <c r="R81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
@@ -7142,17 +7142,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7164,13 +7164,13 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -7179,25 +7179,25 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>2</v>
       </c>
       <c r="P82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
       </c>
       <c r="R82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
@@ -7224,17 +7224,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7243,49 +7243,49 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P83" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -7306,39 +7306,39 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H84" t="n">
         <v>3</v>
       </c>
       <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>4</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
@@ -7346,28 +7346,28 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P84" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S84" t="n">
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -7388,29 +7388,29 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H85" t="n">
         <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -7425,19 +7425,19 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P85" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q85" t="n">
         <v>2</v>
       </c>
       <c r="R85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>2</v>
       </c>
       <c r="U85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -7470,17 +7470,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -7492,16 +7492,16 @@
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -7510,28 +7510,28 @@
         <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>25</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -7552,35 +7552,35 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H87" t="n">
         <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -7592,28 +7592,28 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7634,12 +7634,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7656,40 +7656,40 @@
         <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
         <v>2</v>
       </c>
       <c r="P88" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
       </c>
       <c r="R88" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -7716,17 +7716,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7738,34 +7738,34 @@
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -7774,10 +7774,10 @@
         <v>1</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -7798,22 +7798,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -7823,7 +7823,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -7838,22 +7838,22 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P90" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
       </c>
       <c r="R90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S90" t="n">
         <v>1</v>
       </c>
       <c r="T90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
@@ -7880,32 +7880,32 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H91" t="n">
         <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -7914,28 +7914,28 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
         <v>1</v>
       </c>
       <c r="P91" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S91" t="n">
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -7962,32 +7962,32 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -7996,22 +7996,22 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
       </c>
       <c r="R92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S92" t="n">
         <v>1</v>
@@ -8059,11 +8059,11 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -8126,29 +8126,29 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:26 - 1st Half</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
         <v>2</v>
@@ -8166,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P94" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
@@ -8208,35 +8208,35 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jaden Newell</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -8248,22 +8248,22 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -8290,12 +8290,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -8309,16 +8309,16 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -8330,22 +8330,22 @@
         <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P96" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
       </c>
       <c r="R96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
@@ -8372,17 +8372,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -8394,10 +8394,10 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -8412,22 +8412,22 @@
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P97" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U97" t="n">
         <v>0</v>
@@ -8454,22 +8454,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Jaden Newell</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -8536,17 +8536,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8558,40 +8558,40 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
         <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
         <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P99" t="n">
         <v>6</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
@@ -8618,17 +8618,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -8640,10 +8640,10 @@
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -8658,28 +8658,28 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P100" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -8700,17 +8700,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8734,28 +8734,28 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
       </c>
       <c r="R101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
@@ -8782,12 +8782,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -8822,28 +8822,28 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P102" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
       </c>
       <c r="R102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -8864,22 +8864,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -8889,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -8898,28 +8898,28 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O103" t="n">
         <v>1</v>
       </c>
       <c r="P103" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
@@ -8946,17 +8946,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -8968,40 +8968,40 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R104" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U104" t="n">
         <v>0</v>
@@ -9028,62 +9028,62 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S105" t="n">
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U105" t="n">
         <v>0</v>
@@ -9110,36 +9110,36 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
         <v>4</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="n">
-        <v>1</v>
-      </c>
       <c r="L106" t="n">
         <v>0</v>
       </c>
@@ -9147,16 +9147,16 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P106" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R106" t="n">
         <v>5</v>
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="V106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -9192,17 +9192,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -9214,13 +9214,13 @@
         <v>-1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -9229,31 +9229,31 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R107" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -9293,13 +9293,13 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -9311,19 +9311,19 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
       </c>
       <c r="R108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
@@ -9356,17 +9356,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Christ Essandoko</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -9393,25 +9393,25 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
       </c>
       <c r="R109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S109" t="n">
         <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -9438,26 +9438,26 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>4:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -9475,13 +9475,13 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P110" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q110" t="n">
         <v>0</v>
@@ -9493,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
@@ -9602,67 +9602,149 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ALA@TENN</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1:26 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="n">
+        <v>2</v>
+      </c>
+      <c r="P112" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>3</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>London Jemison</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>ALA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>ALA@TENN</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>4:36 - 1st Half</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1</v>
-      </c>
-      <c r="O112" t="n">
-        <v>1</v>
-      </c>
-      <c r="P112" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0</v>
-      </c>
-      <c r="R112" t="n">
-        <v>2</v>
-      </c>
-      <c r="S112" t="n">
-        <v>0</v>
-      </c>
-      <c r="T112" t="n">
-        <v>2</v>
-      </c>
-      <c r="U112" t="n">
-        <v>0</v>
-      </c>
-      <c r="V112" t="n">
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1:26 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="n">
+        <v>2</v>
+      </c>
+      <c r="P113" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>3</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9714,7 +9796,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9736,27 +9818,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -9766,7 +9848,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -9779,7 +9861,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -9792,7 +9874,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -679,11 +679,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>8</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q3" t="n">
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -843,14 +843,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1171,53 +1171,53 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
         <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1275,25 +1275,25 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1417,20 +1417,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>7</v>
@@ -1442,28 +1442,28 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S12" t="n">
         <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1663,41 +1663,41 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
         <v>6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1745,20 +1745,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
+        <v>9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
         <v>7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>5</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2058,62 +2058,62 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
         <v>5</v>
       </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>15</v>
-      </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2140,35 +2140,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2177,25 +2177,25 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="n">
         <v>12</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2347,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="P23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2401,23 +2401,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2429,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2511,19 +2511,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2729,23 +2729,23 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -2772,10 +2772,10 @@
         <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2796,32 +2796,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -2833,31 +2833,31 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Q29" t="n">
         <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2878,68 +2878,68 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
+        <v>13</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>10</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="n">
         <v>6</v>
       </c>
-      <c r="J30" t="n">
-        <v>6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>6</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2960,62 +2960,62 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3042,62 +3042,62 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3385,14 +3385,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>-3</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
         <v>2</v>
@@ -3413,19 +3413,19 @@
         <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3549,14 +3549,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -3565,25 +3565,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -3631,17 +3631,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3659,13 +3659,13 @@
         <v>2</v>
       </c>
       <c r="P39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3713,17 +3713,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3735,19 +3735,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
         <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3862,32 +3862,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I42" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -3896,34 +3896,34 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Q42" t="n">
         <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3966,40 +3966,40 @@
         <v>13</v>
       </c>
       <c r="I43" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U43" t="n">
         <v>2</v>
@@ -4026,68 +4026,68 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J44" t="n">
         <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
         <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -4205,20 +4205,20 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I46" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J46" t="n">
         <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4233,25 +4233,25 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>8</v>
+      </c>
+      <c r="S46" t="n">
         <v>4</v>
       </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3</v>
-      </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -4682,68 +4682,68 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>9</v>
       </c>
       <c r="I52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -4764,62 +4764,62 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
         <v>2</v>
@@ -4861,47 +4861,47 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>16</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
         <v>6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2</v>
-      </c>
-      <c r="P54" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2</v>
-      </c>
-      <c r="R54" t="n">
-        <v>8</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
-        <v>3</v>
       </c>
       <c r="U54" t="n">
         <v>2</v>
@@ -5189,20 +5189,20 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5214,22 +5214,22 @@
         <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" t="n">
         <v>1</v>
@@ -5502,42 +5502,42 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
+        <v>8</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
         <v>4</v>
       </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2</v>
-      </c>
-      <c r="M62" t="n">
-        <v>2</v>
-      </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
@@ -5545,25 +5545,25 @@
         <v>1</v>
       </c>
       <c r="P62" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
         <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -5584,17 +5584,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5603,49 +5603,49 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>2</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q63" t="n">
         <v>3</v>
       </c>
       <c r="R63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
         <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -5666,12 +5666,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5685,37 +5685,37 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3</v>
+      </c>
+      <c r="P64" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
         <v>4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" t="n">
-        <v>3</v>
-      </c>
-      <c r="P64" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>4</v>
-      </c>
-      <c r="R64" t="n">
-        <v>10</v>
       </c>
       <c r="S64" t="n">
         <v>2</v>
@@ -5748,12 +5748,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5770,43 +5770,43 @@
         <v>12</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J65" t="n">
         <v>4</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q65" t="n">
         <v>4</v>
       </c>
       <c r="R65" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S65" t="n">
         <v>2</v>
       </c>
       <c r="T65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V65" t="n">
         <v>2</v>
@@ -5830,17 +5830,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5849,46 +5849,46 @@
         </is>
       </c>
       <c r="H66" t="n">
+        <v>12</v>
+      </c>
+      <c r="I66" t="n">
         <v>11</v>
       </c>
-      <c r="I66" t="n">
-        <v>12</v>
-      </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q66" t="n">
         <v>4</v>
       </c>
       <c r="R66" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S66" t="n">
         <v>2</v>
       </c>
       <c r="T66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V66" t="n">
         <v>2</v>
@@ -5912,62 +5912,62 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>11</v>
       </c>
       <c r="I67" t="n">
+        <v>12</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>5</v>
+      </c>
+      <c r="P67" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q67" t="n">
         <v>4</v>
       </c>
-      <c r="J67" t="n">
-        <v>5</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="n">
-        <v>2</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1</v>
-      </c>
-      <c r="P67" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>1</v>
-      </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U67" t="n">
         <v>2</v>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -6265,7 +6265,7 @@
         <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -6283,13 +6283,13 @@
         <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q71" t="n">
         <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -6486,32 +6486,32 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
         <v>8</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -6520,34 +6520,34 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>7</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3</v>
+      </c>
+      <c r="U74" t="n">
         <v>4</v>
       </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1</v>
-      </c>
-      <c r="R74" t="n">
-        <v>2</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0</v>
-      </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -6568,32 +6568,32 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I75" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -6611,13 +6611,13 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
@@ -6626,10 +6626,10 @@
         <v>1</v>
       </c>
       <c r="U75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -7388,29 +7388,29 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H85" t="n">
         <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -7425,19 +7425,19 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q85" t="n">
         <v>2</v>
       </c>
       <c r="R85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>2</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -7470,35 +7470,35 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H86" t="n">
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -7507,31 +7507,31 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7552,62 +7552,62 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H87" t="n">
         <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P87" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -7656,46 +7656,46 @@
         <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
       </c>
       <c r="R88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -7716,12 +7716,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7738,10 +7738,10 @@
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -7756,28 +7756,28 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P89" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
       </c>
       <c r="R89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -7798,17 +7798,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7820,40 +7820,40 @@
         <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P90" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
@@ -7880,59 +7880,59 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H91" t="n">
         <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T91" t="n">
         <v>1</v>
@@ -7962,41 +7962,41 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -8005,19 +8005,19 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8059,47 +8059,47 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H93" t="n">
         <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P93" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -8169,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:32 - 2nd Half</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -9138,10 +9138,10 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -9153,19 +9153,19 @@
         <v>2</v>
       </c>
       <c r="P106" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
@@ -9602,12 +9602,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -9617,11 +9617,11 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -9645,19 +9645,19 @@
         <v>2</v>
       </c>
       <c r="P112" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q112" t="n">
         <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
@@ -9684,12 +9684,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Ethan Burg</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1:26 - 1st Half</t>
+          <t>14:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -9727,7 +9727,7 @@
         <v>2</v>
       </c>
       <c r="P113" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q113" t="n">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9809,7 +9809,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -9818,37 +9818,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -9874,7 +9874,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,68 +664,68 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>19</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>28</v>
       </c>
       <c r="Q3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -746,68 +746,68 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R4" t="n">
+        <v>14</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
         <v>4</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1320,62 +1320,62 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
         <v>6</v>
       </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1402,17 +1402,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1424,13 +1424,13 @@
         <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1439,22 +1439,22 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>3</v>
@@ -1484,32 +1484,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1648,35 +1648,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>16</v>
+      </c>
+      <c r="I15" t="n">
         <v>13</v>
       </c>
-      <c r="I15" t="n">
-        <v>20</v>
-      </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1685,31 +1685,31 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1730,68 +1730,68 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1812,68 +1812,68 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1909,17 +1909,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1934,28 +1934,28 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2237,53 +2237,53 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>7</v>
       </c>
       <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
         <v>7</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
       <c r="S22" t="n">
         <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2304,35 +2304,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2341,25 +2341,25 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,35 +2386,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2423,25 +2423,25 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2483,53 +2483,53 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2632,32 +2632,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
@@ -2672,28 +2672,28 @@
         <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" t="n">
         <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
         <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2714,17 +2714,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2736,46 +2736,46 @@
         <v>14</v>
       </c>
       <c r="I28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2815,49 +2815,49 @@
         </is>
       </c>
       <c r="H29" t="n">
+        <v>14</v>
+      </c>
+      <c r="I29" t="n">
+        <v>17</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" t="n">
+        <v>11</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>5</v>
       </c>
-      <c r="I29" t="n">
-        <v>13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>3</v>
-      </c>
-      <c r="P29" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>15</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>12</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2878,35 +2878,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3124,62 +3124,62 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3225,19 +3225,19 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3249,19 +3249,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3288,50 +3288,50 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3631,41 +3631,41 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q39" t="n">
         <v>4</v>
       </c>
-      <c r="I39" t="n">
-        <v>4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3713,20 +3713,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3738,28 +3738,28 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -3780,68 +3780,68 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I41" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q41" t="n">
         <v>9</v>
       </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
+        <v>14</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
         <v>5</v>
       </c>
-      <c r="R41" t="n">
-        <v>11</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -3862,17 +3862,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3881,49 +3881,49 @@
         </is>
       </c>
       <c r="H42" t="n">
+        <v>12</v>
+      </c>
+      <c r="I42" t="n">
         <v>10</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
+        <v>9</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q42" t="n">
         <v>5</v>
       </c>
-      <c r="J42" t="n">
-        <v>5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" t="n">
-        <v>3</v>
-      </c>
-      <c r="P42" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2</v>
-      </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3963,49 +3963,49 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I43" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P43" t="n">
         <v>23</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4026,17 +4026,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4045,49 +4045,49 @@
         </is>
       </c>
       <c r="H44" t="n">
+        <v>9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>10</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="n">
         <v>6</v>
       </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
-      <c r="T44" t="n">
-        <v>3</v>
-      </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -4108,62 +4108,62 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
         <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4205,11 +4205,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4230,10 +4230,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -4533,53 +4533,53 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
         <v>5</v>
       </c>
-      <c r="I50" t="n">
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q50" t="n">
         <v>5</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2</v>
-      </c>
       <c r="R50" t="n">
+        <v>16</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
         <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1</v>
-      </c>
-      <c r="V50" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -4846,62 +4846,62 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I54" t="n">
         <v>12</v>
       </c>
       <c r="J54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q54" t="n">
         <v>6</v>
       </c>
       <c r="R54" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -4928,17 +4928,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4947,37 +4947,37 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -4986,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5010,32 +5010,32 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -5047,16 +5047,16 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
         <v>4</v>
@@ -5065,13 +5065,13 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -5092,35 +5092,35 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5129,25 +5129,25 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P57" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="n">
         <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -5174,57 +5174,57 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I58" t="n">
         <v>10</v>
       </c>
       <c r="J58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
         <v>5</v>
       </c>
-      <c r="R58" t="n">
-        <v>8</v>
-      </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
@@ -5232,10 +5232,10 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -5256,17 +5256,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5275,49 +5275,49 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I59" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" t="n">
+        <v>9</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
+      <c r="P59" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
         <v>8</v>
       </c>
-      <c r="J59" t="n">
-        <v>4</v>
-      </c>
-      <c r="K59" t="n">
-        <v>8</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2</v>
-      </c>
-      <c r="O59" t="n">
-        <v>3</v>
-      </c>
-      <c r="P59" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>3</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5338,17 +5338,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5357,40 +5357,40 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I60" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J60" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>2</v>
       </c>
       <c r="O60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P60" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
         <v>2</v>
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5442,40 +5442,40 @@
         <v>13</v>
       </c>
       <c r="I61" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
         <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R61" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
         <v>2</v>
@@ -5502,68 +5502,68 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J62" t="n">
         <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R62" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -6486,68 +6486,68 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I74" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P74" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R74" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6583,53 +6583,53 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P75" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U75" t="n">
         <v>2</v>
       </c>
       <c r="V75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -6650,17 +6650,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6669,16 +6669,16 @@
         </is>
       </c>
       <c r="H76" t="n">
+        <v>7</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7</v>
+      </c>
+      <c r="J76" t="n">
         <v>6</v>
       </c>
-      <c r="I76" t="n">
-        <v>5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5</v>
-      </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -6690,28 +6690,28 @@
         <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P76" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
+        <v>7</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
         <v>4</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1</v>
-      </c>
-      <c r="T76" t="n">
-        <v>4</v>
-      </c>
-      <c r="U76" t="n">
-        <v>2</v>
-      </c>
-      <c r="V76" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -6732,17 +6732,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6751,49 +6751,49 @@
         </is>
       </c>
       <c r="H77" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" t="n">
         <v>5</v>
       </c>
-      <c r="I77" t="n">
-        <v>7</v>
-      </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S77" t="n">
         <v>1</v>
       </c>
       <c r="T77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -6814,29 +6814,29 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -6848,34 +6848,34 @@
         <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
         <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -6896,68 +6896,68 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H79" t="n">
         <v>21</v>
       </c>
       <c r="I79" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J79" t="n">
+        <v>2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>8</v>
+      </c>
+      <c r="R79" t="n">
+        <v>10</v>
+      </c>
+      <c r="S79" t="n">
         <v>4</v>
       </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="n">
-        <v>2</v>
-      </c>
-      <c r="N79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O79" t="n">
-        <v>3</v>
-      </c>
-      <c r="P79" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q79" t="n">
+      <c r="T79" t="n">
         <v>5</v>
       </c>
-      <c r="R79" t="n">
-        <v>6</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0</v>
-      </c>
       <c r="U79" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -6978,17 +6978,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6997,49 +6997,49 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I80" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" t="n">
         <v>3</v>
       </c>
       <c r="P80" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -7060,17 +7060,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -7082,46 +7082,46 @@
         <v>17</v>
       </c>
       <c r="I81" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J81" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3</v>
+      </c>
+      <c r="P81" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q81" t="n">
         <v>4</v>
       </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>2</v>
-      </c>
-      <c r="P81" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>2</v>
-      </c>
       <c r="R81" t="n">
+        <v>7</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3</v>
+      </c>
+      <c r="U81" t="n">
         <v>4</v>
       </c>
-      <c r="S81" t="n">
-        <v>0</v>
-      </c>
-      <c r="T81" t="n">
-        <v>0</v>
-      </c>
-      <c r="U81" t="n">
-        <v>2</v>
-      </c>
       <c r="V81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -7142,17 +7142,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7161,49 +7161,49 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I82" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J82" t="n">
+        <v>8</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="n">
         <v>4</v>
       </c>
-      <c r="K82" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P82" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
         <v>4</v>
       </c>
-      <c r="R82" t="n">
-        <v>7</v>
-      </c>
       <c r="S82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -7224,12 +7224,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -7243,49 +7243,49 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J83" t="n">
         <v>4</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P83" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="Q83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R83" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -7306,38 +7306,38 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J84" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -7346,22 +7346,22 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P84" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
@@ -7388,17 +7388,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7407,49 +7407,49 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P85" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q85" t="n">
         <v>3</v>
       </c>
       <c r="R85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U85" t="n">
         <v>2</v>
       </c>
       <c r="V85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -7470,35 +7470,35 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I86" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
         <v>1</v>
@@ -7507,25 +7507,25 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Q86" t="n">
         <v>4</v>
       </c>
       <c r="R86" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U86" t="n">
         <v>2</v>
@@ -7552,17 +7552,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -7571,13 +7571,13 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I87" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J87" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
@@ -7586,34 +7586,34 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P87" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R87" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7634,17 +7634,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7653,19 +7653,19 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I88" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J88" t="n">
         <v>2</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -7674,16 +7674,16 @@
         <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P88" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
         <v>4</v>
-      </c>
-      <c r="R88" t="n">
-        <v>6</v>
       </c>
       <c r="S88" t="n">
         <v>2</v>
@@ -7716,17 +7716,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7735,49 +7735,49 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I89" t="n">
         <v>12</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P89" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q89" t="n">
         <v>4</v>
       </c>
       <c r="R89" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T89" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -7798,17 +7798,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7817,13 +7817,13 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I90" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
@@ -7832,34 +7832,34 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U90" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -7880,17 +7880,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7899,49 +7899,49 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J91" t="n">
+        <v>2</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="n">
+        <v>5</v>
+      </c>
+      <c r="P91" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q91" t="n">
         <v>4</v>
       </c>
-      <c r="K91" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" t="n">
-        <v>1</v>
-      </c>
-      <c r="O91" t="n">
-        <v>1</v>
-      </c>
-      <c r="P91" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>3</v>
-      </c>
       <c r="R91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -7962,38 +7962,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H92" t="n">
+        <v>11</v>
+      </c>
+      <c r="I92" t="n">
         <v>10</v>
       </c>
-      <c r="I92" t="n">
-        <v>6</v>
-      </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -8002,22 +8002,22 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P92" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
@@ -8044,35 +8044,35 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I93" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -8087,19 +8087,19 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R93" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T93" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
@@ -8126,17 +8126,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -8148,46 +8148,46 @@
         <v>10</v>
       </c>
       <c r="I94" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R94" t="n">
         <v>7</v>
       </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U94" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -8208,17 +8208,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8227,49 +8227,49 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P95" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R95" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -8290,17 +8290,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -8309,49 +8309,49 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I96" t="n">
         <v>6</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P96" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R96" t="n">
         <v>3</v>
       </c>
       <c r="S96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -8372,62 +8372,62 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H97" t="n">
+        <v>10</v>
+      </c>
+      <c r="I97" t="n">
         <v>8</v>
       </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
       <c r="J97" t="n">
+        <v>5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q97" t="n">
         <v>4</v>
       </c>
-      <c r="K97" t="n">
-        <v>1</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" t="n">
+      <c r="R97" t="n">
         <v>7</v>
       </c>
-      <c r="Q97" t="n">
-        <v>1</v>
-      </c>
-      <c r="R97" t="n">
-        <v>1</v>
-      </c>
       <c r="S97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U97" t="n">
         <v>0</v>
@@ -8454,17 +8454,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -8473,49 +8473,49 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K98" t="n">
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P98" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R98" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -8536,17 +8536,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8555,16 +8555,16 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -8573,13 +8573,13 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P99" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q99" t="n">
         <v>2</v>
@@ -8588,16 +8588,16 @@
         <v>3</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U99" t="n">
         <v>1</v>
       </c>
       <c r="V99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -8618,68 +8618,68 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Filip Jovic</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I100" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K100" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P100" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R100" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -8700,17 +8700,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -8719,43 +8719,43 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
         <v>2</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
@@ -8782,17 +8782,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -8801,16 +8801,16 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
@@ -8819,19 +8819,19 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P102" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
@@ -8840,10 +8840,10 @@
         <v>0</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8883,49 +8883,49 @@
         </is>
       </c>
       <c r="H103" t="n">
+        <v>6</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>5</v>
+      </c>
+      <c r="O103" t="n">
+        <v>2</v>
+      </c>
+      <c r="P103" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q103" t="n">
         <v>4</v>
       </c>
-      <c r="I103" t="n">
-        <v>3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="n">
-        <v>1</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0</v>
-      </c>
-      <c r="P103" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>1</v>
-      </c>
       <c r="R103" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -8946,38 +8946,38 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H104" t="n">
+        <v>5</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
         <v>4</v>
       </c>
-      <c r="I104" t="n">
-        <v>3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -8986,19 +8986,19 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T104" t="n">
         <v>1</v>
@@ -9028,35 +9028,35 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -9068,16 +9068,16 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P105" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R105" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S105" t="n">
         <v>0</v>
@@ -9086,10 +9086,10 @@
         <v>0</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -9110,17 +9110,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -9129,37 +9129,37 @@
         </is>
       </c>
       <c r="H106" t="n">
+        <v>5</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R106" t="n">
         <v>4</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" t="n">
-        <v>1</v>
-      </c>
-      <c r="O106" t="n">
-        <v>2</v>
-      </c>
-      <c r="P106" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>1</v>
-      </c>
-      <c r="R106" t="n">
-        <v>2</v>
       </c>
       <c r="S106" t="n">
         <v>1</v>
@@ -9192,17 +9192,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -9211,10 +9211,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
         <v>2</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -9232,16 +9232,16 @@
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P107" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
@@ -9250,10 +9250,10 @@
         <v>0</v>
       </c>
       <c r="U107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -9274,12 +9274,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -9293,16 +9293,16 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -9311,31 +9311,31 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R108" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T108" t="n">
         <v>2</v>
       </c>
       <c r="U108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -9356,35 +9356,35 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -9393,25 +9393,25 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P109" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -9438,17 +9438,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -9457,19 +9457,19 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
         <v>1</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -9478,16 +9478,16 @@
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S110" t="n">
         <v>0</v>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -9539,19 +9539,19 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -9563,19 +9563,19 @@
         <v>2</v>
       </c>
       <c r="P111" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
       </c>
       <c r="R111" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
@@ -9602,17 +9602,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -9624,17 +9624,17 @@
         <v>3</v>
       </c>
       <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
         <v>4</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
@@ -9642,25 +9642,25 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V112" t="n">
         <v>2</v>
@@ -9684,17 +9684,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -9706,10 +9706,10 @@
         <v>3</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -9721,31 +9721,31 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P113" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
@@ -9809,25 +9809,25 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
       </c>
       <c r="R114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -9848,17 +9848,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -9873,37 +9873,37 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
         <v>1</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
         <v>1</v>
       </c>
       <c r="P115" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Q115" t="n">
         <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
@@ -9930,17 +9930,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -9949,43 +9949,43 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P116" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1</v>
+      </c>
+      <c r="R116" t="n">
+        <v>6</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0</v>
+      </c>
+      <c r="T116" t="n">
         <v>4</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>0</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0</v>
-      </c>
-      <c r="S116" t="n">
-        <v>0</v>
-      </c>
-      <c r="T116" t="n">
-        <v>0</v>
       </c>
       <c r="U116" t="n">
         <v>0</v>
@@ -10012,17 +10012,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -10031,13 +10031,13 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -10052,28 +10052,28 @@
         <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S117" t="n">
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -10094,17 +10094,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -10113,13 +10113,13 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -10128,16 +10128,16 @@
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -10149,7 +10149,7 @@
         <v>1</v>
       </c>
       <c r="T118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U118" t="n">
         <v>0</v>
@@ -10176,17 +10176,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -10195,43 +10195,43 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
         <v>4</v>
       </c>
-      <c r="J119" t="n">
-        <v>2</v>
-      </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P119" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R119" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S119" t="n">
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
@@ -10258,41 +10258,41 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Filip Jovic</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="P120" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q120" t="n">
         <v>0</v>
@@ -10340,35 +10340,35 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Jaden Newell</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
@@ -10377,19 +10377,19 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
       </c>
       <c r="P121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S121" t="n">
         <v>0</v>
@@ -10422,17 +10422,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -10441,43 +10441,43 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
         <v>2</v>
       </c>
       <c r="K122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P122" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S122" t="n">
         <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U122" t="n">
         <v>0</v>
@@ -10504,17 +10504,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -10523,10 +10523,10 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -10538,28 +10538,28 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O123" t="n">
         <v>1</v>
       </c>
       <c r="P123" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U123" t="n">
         <v>0</v>
@@ -10586,17 +10586,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -10608,13 +10608,13 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J124" t="n">
         <v>2</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -10626,16 +10626,16 @@
         <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P124" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R124" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -10668,17 +10668,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Jaden Newell</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -10693,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -10705,13 +10705,13 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q125" t="n">
         <v>0</v>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -10772,46 +10772,46 @@
         <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
         <v>2</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O126" t="n">
         <v>3</v>
       </c>
       <c r="P126" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
       </c>
       <c r="R126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S126" t="n">
         <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -10832,17 +10832,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -10851,13 +10851,13 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -10866,28 +10866,28 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
         <v>1</v>
       </c>
       <c r="P127" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q127" t="n">
         <v>0</v>
       </c>
       <c r="R127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U127" t="n">
         <v>0</v>
@@ -10914,17 +10914,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -10933,13 +10933,13 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K128" t="n">
         <v>1</v>
@@ -10951,25 +10951,25 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P128" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Q128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R128" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
@@ -10996,32 +10996,32 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -11033,25 +11033,25 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q129" t="n">
         <v>0</v>
       </c>
       <c r="R129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S129" t="n">
         <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U129" t="n">
         <v>0</v>
@@ -11078,12 +11078,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -11097,7 +11097,7 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -11118,28 +11118,28 @@
         <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
       </c>
       <c r="R130" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -11185,31 +11185,31 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
       </c>
       <c r="R131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
@@ -11242,17 +11242,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -11264,40 +11264,40 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P132" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Q132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R132" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S132" t="n">
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U132" t="n">
         <v>0</v>
@@ -11324,32 +11324,32 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -11361,31 +11361,31 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P133" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q133" t="n">
         <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -11406,32 +11406,32 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -11446,22 +11446,22 @@
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U134" t="n">
         <v>0</v>
@@ -11488,22 +11488,22 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -11516,34 +11516,34 @@
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" t="n">
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O135" t="n">
         <v>0</v>
       </c>
       <c r="P135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
       </c>
       <c r="R135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S135" t="n">
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U135" t="n">
         <v>0</v>
@@ -11570,12 +11570,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>13:39 - 1st Half</t>
+          <t>11:59 - 2nd Half</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -11610,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P136" t="n">
         <v>2</v>
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="R136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S136" t="n">
         <v>0</v>
@@ -11652,62 +11652,62 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P137" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R137" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S137" t="n">
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U137" t="n">
         <v>0</v>
@@ -11734,17 +11734,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Kai Rogers</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -11753,16 +11753,16 @@
         </is>
       </c>
       <c r="H138" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -11771,31 +11771,31 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P138" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R138" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U138" t="n">
         <v>0</v>
       </c>
       <c r="V138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -11831,17 +11831,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>8:31 - 1st Half</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -11850,22 +11850,22 @@
         <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P139" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="Q139" t="n">
         <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S139" t="n">
         <v>0</v>
@@ -11874,10 +11874,10 @@
         <v>1</v>
       </c>
       <c r="U139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -11898,26 +11898,26 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -11938,22 +11938,22 @@
         <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P140" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q140" t="n">
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U140" t="n">
         <v>0</v>
@@ -11980,17 +11980,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -11999,16 +11999,16 @@
         </is>
       </c>
       <c r="H141" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -12017,31 +12017,31 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P141" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R141" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S141" t="n">
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U141" t="n">
         <v>0</v>
       </c>
       <c r="V141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -12062,17 +12062,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -12081,7 +12081,7 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="O142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P142" t="n">
         <v>2</v>
@@ -12111,13 +12111,13 @@
         <v>0</v>
       </c>
       <c r="R142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
@@ -12144,17 +12144,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Christ Essandoko</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -12163,13 +12163,13 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -12181,13 +12181,13 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="n">
         <v>0</v>
       </c>
       <c r="P143" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q143" t="n">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
@@ -12226,17 +12226,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -12245,13 +12245,13 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -12263,25 +12263,25 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P144" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
       </c>
       <c r="R144" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S144" t="n">
         <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U144" t="n">
         <v>0</v>
@@ -12308,32 +12308,32 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:29 - 2nd Half</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K145" t="n">
         <v>1</v>
@@ -12348,10 +12348,10 @@
         <v>1</v>
       </c>
       <c r="O145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P145" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
@@ -12369,6 +12369,252 @@
         <v>0</v>
       </c>
       <c r="V145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="n">
+        <v>3</v>
+      </c>
+      <c r="S146" t="n">
+        <v>0</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>ALA@TENN</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="n">
+        <v>2</v>
+      </c>
+      <c r="P147" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="n">
+        <v>4</v>
+      </c>
+      <c r="S147" t="n">
+        <v>0</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ALA@TENN</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="n">
+        <v>2</v>
+      </c>
+      <c r="P148" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="n">
+        <v>4</v>
+      </c>
+      <c r="S148" t="n">
+        <v>0</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
+      <c r="V148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12416,11 +12662,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -12429,11 +12675,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -12446,7 +12692,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -12459,7 +12705,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -12472,7 +12718,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -12481,11 +12727,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -12494,7 +12740,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B8" t="n">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V148"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -582,17 +582,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -601,19 +601,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -622,28 +622,28 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>17</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
         <v>4</v>
       </c>
-      <c r="P2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -664,62 +664,62 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="n">
         <v>6</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>8</v>
-      </c>
       <c r="R3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -1335,14 +1335,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>3</v>
@@ -1363,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1663,14 +1663,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
         <v>5</v>
@@ -1679,25 +1679,25 @@
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1706,10 +1706,10 @@
         <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1919,25 +1919,25 @@
         <v>3</v>
       </c>
       <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
         <v>4</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
       <c r="P18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -2222,41 +2222,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2265,25 +2265,25 @@
         <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2304,35 +2304,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2347,25 +2347,25 @@
         <v>3</v>
       </c>
       <c r="P23" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2386,17 +2386,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2405,37 +2405,37 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q24" t="n">
         <v>5</v>
       </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2468,68 +2468,68 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
         <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q25" t="n">
         <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2647,17 +2647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>19</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
@@ -2672,16 +2672,16 @@
         <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q27" t="n">
         <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
         <v>2</v>
@@ -2690,10 +2690,10 @@
         <v>6</v>
       </c>
       <c r="U27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -3124,62 +3124,62 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3206,17 +3206,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3225,43 +3225,43 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3534,17 +3534,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3553,49 +3553,49 @@
         </is>
       </c>
       <c r="H38" t="n">
+        <v>16</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
         <v>8</v>
-      </c>
-      <c r="I38" t="n">
-        <v>7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>6</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3631,53 +3631,53 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>14</v>
+      </c>
+      <c r="I39" t="n">
+        <v>17</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3</v>
+      </c>
+      <c r="P39" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q39" t="n">
         <v>7</v>
       </c>
-      <c r="I39" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2</v>
-      </c>
-      <c r="P39" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
       <c r="R39" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -3698,68 +3698,68 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
+        <v>8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
         <v>6</v>
       </c>
-      <c r="I40" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>3</v>
-      </c>
-      <c r="P40" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
       <c r="S40" t="n">
         <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3795,17 +3795,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>4</v>
@@ -3823,25 +3823,25 @@
         <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q41" t="n">
         <v>9</v>
       </c>
       <c r="R41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S41" t="n">
         <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -4205,17 +4205,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>4</v>
       </c>
       <c r="P46" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -4533,53 +4533,53 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
+        <v>7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>17</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>6</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>6</v>
+      </c>
+      <c r="R50" t="n">
+        <v>19</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3</v>
+      </c>
+      <c r="U50" t="n">
         <v>4</v>
       </c>
-      <c r="I50" t="n">
-        <v>12</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>16</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2</v>
-      </c>
       <c r="V50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -4861,35 +4861,35 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
       </c>
       <c r="K54" t="n">
+        <v>5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
         <v>4</v>
       </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2</v>
-      </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q54" t="n">
         <v>6</v>
@@ -4904,10 +4904,10 @@
         <v>3</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -5107,11 +5107,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" t="n">
         <v>10</v>
@@ -5135,19 +5135,19 @@
         <v>3</v>
       </c>
       <c r="P57" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q57" t="n">
         <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
       </c>
       <c r="T57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -5189,17 +5189,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I58" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J58" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5214,16 +5214,16 @@
         <v>2</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q58" t="n">
         <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5232,10 +5232,10 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6501,23 +6501,23 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I74" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -6526,28 +6526,28 @@
         <v>2</v>
       </c>
       <c r="O74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P74" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q74" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R74" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S74" t="n">
         <v>2</v>
       </c>
       <c r="T74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6583,53 +6583,53 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O75" t="n">
         <v>3</v>
       </c>
       <c r="P75" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
         <v>7</v>
       </c>
-      <c r="R75" t="n">
-        <v>12</v>
-      </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T75" t="n">
         <v>4</v>
       </c>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -6911,14 +6911,14 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I79" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J79" t="n">
         <v>2</v>
@@ -6936,10 +6936,10 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q79" t="n">
         <v>8</v>
@@ -6954,10 +6954,10 @@
         <v>5</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -7224,17 +7224,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7246,40 +7246,40 @@
         <v>16</v>
       </c>
       <c r="I83" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J83" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P83" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R83" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S83" t="n">
         <v>2</v>
       </c>
       <c r="T83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
@@ -7306,62 +7306,62 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I84" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
       </c>
       <c r="O84" t="n">
+        <v>3</v>
+      </c>
+      <c r="P84" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q84" t="n">
         <v>4</v>
       </c>
-      <c r="P84" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>2</v>
-      </c>
       <c r="R84" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S84" t="n">
         <v>2</v>
       </c>
       <c r="T84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
@@ -7470,68 +7470,68 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I86" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P86" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7552,17 +7552,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -7574,13 +7574,13 @@
         <v>13</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J87" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -7595,25 +7595,25 @@
         <v>3</v>
       </c>
       <c r="P87" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T87" t="n">
         <v>2</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -7880,17 +7880,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7899,43 +7899,43 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I91" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O91" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q91" t="n">
         <v>4</v>
       </c>
       <c r="R91" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T91" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U91" t="n">
         <v>2</v>
@@ -7962,29 +7962,29 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
         <v>11</v>
       </c>
       <c r="I92" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J92" t="n">
         <v>2</v>
@@ -7999,31 +7999,31 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P92" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q92" t="n">
         <v>4</v>
       </c>
       <c r="R92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S92" t="n">
         <v>2</v>
       </c>
       <c r="T92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -8044,17 +8044,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -8066,16 +8066,16 @@
         <v>11</v>
       </c>
       <c r="I93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -8084,28 +8084,28 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P93" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q93" t="n">
         <v>4</v>
       </c>
       <c r="R93" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
         <v>4</v>
-      </c>
-      <c r="T93" t="n">
-        <v>6</v>
-      </c>
-      <c r="U93" t="n">
-        <v>0</v>
-      </c>
-      <c r="V93" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -8145,49 +8145,49 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I94" t="n">
+        <v>12</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
         <v>13</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>17</v>
-      </c>
       <c r="Q94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R94" t="n">
         <v>7</v>
       </c>
       <c r="S94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T94" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U94" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -8208,17 +8208,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8230,46 +8230,46 @@
         <v>10</v>
       </c>
       <c r="I95" t="n">
+        <v>13</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
         <v>7</v>
       </c>
-      <c r="J95" t="n">
-        <v>4</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
-        <v>1</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1</v>
-      </c>
-      <c r="P95" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>3</v>
-      </c>
-      <c r="R95" t="n">
-        <v>4</v>
-      </c>
       <c r="S95" t="n">
         <v>1</v>
       </c>
       <c r="T95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -8290,7 +8290,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -8312,40 +8312,40 @@
         <v>10</v>
       </c>
       <c r="I96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P96" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q96" t="n">
         <v>3</v>
       </c>
       <c r="R96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
@@ -8372,17 +8372,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -8394,40 +8394,40 @@
         <v>10</v>
       </c>
       <c r="I97" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J97" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P97" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Q97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R97" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U97" t="n">
         <v>0</v>
@@ -8454,17 +8454,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -8473,37 +8473,37 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I98" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J98" t="n">
         <v>5</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R98" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
@@ -8512,10 +8512,10 @@
         <v>2</v>
       </c>
       <c r="U98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -8536,17 +8536,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8555,40 +8555,40 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="n">
+        <v>3</v>
+      </c>
+      <c r="P99" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
         <v>6</v>
       </c>
-      <c r="J99" t="n">
-        <v>3</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>1</v>
-      </c>
-      <c r="O99" t="n">
-        <v>1</v>
-      </c>
-      <c r="P99" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>2</v>
-      </c>
-      <c r="R99" t="n">
-        <v>3</v>
-      </c>
       <c r="S99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T99" t="n">
         <v>2</v>
@@ -8618,62 +8618,62 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Filip Jovic</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H100" t="n">
+        <v>9</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>3</v>
+      </c>
+      <c r="P100" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
         <v>8</v>
       </c>
-      <c r="I100" t="n">
-        <v>5</v>
-      </c>
-      <c r="J100" t="n">
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="n">
         <v>4</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1</v>
-      </c>
-      <c r="P100" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>2</v>
-      </c>
-      <c r="R100" t="n">
-        <v>2</v>
-      </c>
-      <c r="S100" t="n">
-        <v>0</v>
-      </c>
-      <c r="T100" t="n">
-        <v>0</v>
       </c>
       <c r="U100" t="n">
         <v>1</v>
@@ -8700,17 +8700,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Filip Jovic</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -8719,34 +8719,34 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P101" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R101" t="n">
         <v>2</v>
@@ -8755,13 +8755,13 @@
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -8782,17 +8782,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -8801,16 +8801,16 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J102" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
@@ -8819,13 +8819,13 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P102" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q102" t="n">
         <v>2</v>
@@ -8834,16 +8834,16 @@
         <v>3</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U102" t="n">
         <v>1</v>
       </c>
       <c r="V102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8883,37 +8883,37 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I103" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N103" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R103" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
@@ -8922,10 +8922,10 @@
         <v>1</v>
       </c>
       <c r="U103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -8946,35 +8946,35 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H104" t="n">
+        <v>7</v>
+      </c>
+      <c r="I104" t="n">
         <v>5</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L104" t="n">
         <v>1</v>
@@ -8983,31 +8983,31 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P104" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -9028,68 +9028,68 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H105" t="n">
+        <v>6</v>
+      </c>
+      <c r="I105" t="n">
+        <v>10</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
         <v>5</v>
       </c>
-      <c r="I105" t="n">
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
         <v>5</v>
       </c>
-      <c r="J105" t="n">
-        <v>6</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P105" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S105" t="n">
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -9110,17 +9110,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -9132,16 +9132,16 @@
         <v>5</v>
       </c>
       <c r="I106" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -9150,22 +9150,22 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
@@ -9192,17 +9192,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -9211,43 +9211,43 @@
         </is>
       </c>
       <c r="H107" t="n">
+        <v>5</v>
+      </c>
+      <c r="I107" t="n">
+        <v>5</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="n">
         <v>4</v>
       </c>
-      <c r="I107" t="n">
-        <v>2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="n">
-        <v>2</v>
-      </c>
-      <c r="P107" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>1</v>
-      </c>
-      <c r="R107" t="n">
-        <v>2</v>
-      </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -9296,16 +9296,16 @@
         <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -9314,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -9326,10 +9326,10 @@
         <v>2</v>
       </c>
       <c r="S108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -9356,17 +9356,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -9381,10 +9381,10 @@
         <v>3</v>
       </c>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -9396,10 +9396,10 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -9411,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="T109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -9438,17 +9438,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -9460,13 +9460,13 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -9481,19 +9481,19 @@
         <v>2</v>
       </c>
       <c r="P110" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
       </c>
       <c r="R110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
@@ -9520,17 +9520,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -9542,13 +9542,13 @@
         <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -9557,25 +9557,25 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O111" t="n">
         <v>2</v>
       </c>
       <c r="P111" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
@@ -9602,17 +9602,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -9621,49 +9621,49 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P112" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -9684,17 +9684,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -9706,43 +9706,43 @@
         <v>3</v>
       </c>
       <c r="I113" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R113" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S113" t="n">
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V113" t="n">
         <v>2</v>
@@ -9766,29 +9766,29 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H114" t="n">
         <v>3</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -9797,37 +9797,37 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T114" t="n">
         <v>2</v>
       </c>
       <c r="U114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -10355,7 +10355,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -10422,17 +10422,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -10444,10 +10444,10 @@
         <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -10462,16 +10462,16 @@
         <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P122" t="n">
         <v>7</v>
       </c>
       <c r="Q122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S122" t="n">
         <v>0</v>
@@ -10504,17 +10504,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -10526,10 +10526,10 @@
         <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -10538,28 +10538,28 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
         <v>1</v>
       </c>
       <c r="P123" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
         <v>0</v>
@@ -10586,17 +10586,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -10605,13 +10605,13 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -10620,28 +10620,28 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P124" t="n">
         <v>12</v>
       </c>
       <c r="Q124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R124" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U124" t="n">
         <v>0</v>
@@ -10668,17 +10668,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Jaden Newell</t>
+          <t>Alex Lloyd</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -10690,10 +10690,10 @@
         <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -10708,22 +10708,22 @@
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P125" t="n">
         <v>2</v>
       </c>
       <c r="Q125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S125" t="n">
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U125" t="n">
         <v>0</v>
@@ -10750,17 +10750,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -10772,34 +10772,34 @@
         <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J126" t="n">
         <v>2</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O126" t="n">
         <v>3</v>
       </c>
       <c r="P126" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R126" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S126" t="n">
         <v>0</v>
@@ -10832,17 +10832,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Jaden Newell</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>SC@UGA</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -10872,10 +10872,10 @@
         <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P127" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q127" t="n">
         <v>0</v>
@@ -10914,17 +10914,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -10948,16 +10948,16 @@
         <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P128" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -10996,12 +10996,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -11033,10 +11033,10 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" t="n">
         <v>6</v>
@@ -11078,17 +11078,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -11100,13 +11100,13 @@
         <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
         <v>2</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -11118,28 +11118,28 @@
         <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P130" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
       </c>
       <c r="R130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S130" t="n">
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -11160,17 +11160,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -11194,28 +11194,28 @@
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P131" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
       </c>
       <c r="R131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U131" t="n">
         <v>0</v>
@@ -11242,17 +11242,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Viktor Mikic</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -11261,16 +11261,16 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
@@ -11279,25 +11279,25 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P132" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="Q132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R132" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S132" t="n">
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U132" t="n">
         <v>0</v>
@@ -11324,29 +11324,29 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J133" t="n">
         <v>2</v>
@@ -11361,19 +11361,19 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P133" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="Q133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -11406,17 +11406,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -11428,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
         <v>2</v>
@@ -11440,28 +11440,28 @@
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O134" t="n">
         <v>1</v>
       </c>
       <c r="P134" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R134" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U134" t="n">
         <v>0</v>
@@ -11488,17 +11488,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Alex Kovatchev</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -11516,34 +11516,34 @@
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135" t="n">
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" t="n">
         <v>0</v>
       </c>
       <c r="P135" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
       </c>
       <c r="R135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S135" t="n">
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U135" t="n">
         <v>0</v>
@@ -11570,35 +11570,35 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ARK@FLA</t>
+          <t>ALA@TENN</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -11607,25 +11607,25 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P136" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="Q136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R136" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S136" t="n">
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U136" t="n">
         <v>0</v>
@@ -11652,17 +11652,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -11674,46 +11674,46 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K137" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P137" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="Q137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R137" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S137" t="n">
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -11734,17 +11734,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>CJ Ingram</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>OU@LSU</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="P138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
@@ -11816,32 +11816,32 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>TEX@TA&amp;M</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -11850,34 +11850,34 @@
         <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P139" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T139" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -11898,22 +11898,22 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>MISS@AUB</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -11926,34 +11926,34 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M140" t="n">
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P140" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q140" t="n">
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U140" t="n">
         <v>0</v>
@@ -11980,17 +11980,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>MIZ@MSST</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -11999,49 +11999,49 @@
         </is>
       </c>
       <c r="H141" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>8</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>3</v>
+      </c>
+      <c r="O141" t="n">
+        <v>2</v>
+      </c>
+      <c r="P141" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>10</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0</v>
+      </c>
+      <c r="T141" t="n">
         <v>4</v>
       </c>
-      <c r="J141" t="n">
-        <v>1</v>
-      </c>
-      <c r="K141" t="n">
-        <v>1</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0</v>
-      </c>
-      <c r="N141" t="n">
-        <v>3</v>
-      </c>
-      <c r="O141" t="n">
-        <v>1</v>
-      </c>
-      <c r="P141" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>2</v>
-      </c>
-      <c r="R141" t="n">
-        <v>5</v>
-      </c>
-      <c r="S141" t="n">
-        <v>0</v>
-      </c>
-      <c r="T141" t="n">
-        <v>2</v>
-      </c>
       <c r="U141" t="n">
         <v>0</v>
       </c>
       <c r="V141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -12062,17 +12062,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Kai Rogers</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>VAN@UK</t>
+          <t>OU@LSU</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -12081,7 +12081,7 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -12105,19 +12105,19 @@
         <v>0</v>
       </c>
       <c r="P142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q142" t="n">
         <v>0</v>
       </c>
       <c r="R142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
@@ -12144,17 +12144,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Olivier Rioux</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>SC@UGA</t>
+          <t>ARK@FLA</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -12163,13 +12163,13 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -12181,25 +12181,25 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O143" t="n">
         <v>0</v>
       </c>
       <c r="P143" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q143" t="n">
         <v>0</v>
       </c>
       <c r="R143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S143" t="n">
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
@@ -12226,17 +12226,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MISS@AUB</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -12245,13 +12245,13 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -12260,16 +12260,16 @@
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P144" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
@@ -12281,13 +12281,13 @@
         <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12323,20 +12323,20 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2:29 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -12345,25 +12345,25 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P145" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
       </c>
       <c r="R145" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S145" t="n">
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U145" t="n">
         <v>0</v>
@@ -12390,17 +12390,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>TEX@TA&amp;M</t>
+          <t>MIZ@MSST</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -12409,16 +12409,16 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
@@ -12427,31 +12427,31 @@
         <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R146" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S146" t="n">
         <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U146" t="n">
         <v>0</v>
       </c>
       <c r="V146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -12472,17 +12472,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ALA@TENN</t>
+          <t>VAN@UK</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -12491,13 +12491,13 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -12509,25 +12509,25 @@
         <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P147" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q147" t="n">
         <v>0</v>
       </c>
       <c r="R147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S147" t="n">
         <v>0</v>
       </c>
       <c r="T147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U147" t="n">
         <v>0</v>
@@ -12554,67 +12554,477 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
+          <t>Christ Essandoko</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>SC@UGA</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="n">
+        <v>3</v>
+      </c>
+      <c r="S148" t="n">
+        <v>0</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Federiko Federiko</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1</v>
+      </c>
+      <c r="P149" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>0</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>MISS@AUB</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1</v>
+      </c>
+      <c r="P150" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="n">
+        <v>4</v>
+      </c>
+      <c r="S150" t="n">
+        <v>0</v>
+      </c>
+      <c r="T150" t="n">
+        <v>3</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>TEX@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>3</v>
+      </c>
+      <c r="S151" t="n">
+        <v>0</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>ALA@TENN</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="n">
+        <v>2</v>
+      </c>
+      <c r="P152" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>4</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>3</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>London Jemison</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>ALA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>ALA@TENN</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
         <v>-4</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="n">
-        <v>1</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0</v>
-      </c>
-      <c r="N148" t="n">
-        <v>1</v>
-      </c>
-      <c r="O148" t="n">
-        <v>2</v>
-      </c>
-      <c r="P148" t="n">
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="n">
+        <v>2</v>
+      </c>
+      <c r="P153" t="n">
         <v>14</v>
       </c>
-      <c r="Q148" t="n">
-        <v>0</v>
-      </c>
-      <c r="R148" t="n">
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
         <v>4</v>
       </c>
-      <c r="S148" t="n">
-        <v>0</v>
-      </c>
-      <c r="T148" t="n">
-        <v>3</v>
-      </c>
-      <c r="U148" t="n">
-        <v>0</v>
-      </c>
-      <c r="V148" t="n">
+      <c r="S153" t="n">
+        <v>0</v>
+      </c>
+      <c r="T153" t="n">
+        <v>3</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
+      <c r="V153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12666,7 +13076,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -12675,11 +13085,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -12688,11 +13098,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -12701,11 +13111,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -12714,11 +13124,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -12731,7 +13141,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -12744,7 +13154,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
